--- a/OMG Manager Returns.xlsx
+++ b/OMG Manager Returns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\bmcdonald\desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423272F-E037-42EC-ACD2-648A10CD7DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D1F5A3-B1BC-4D3F-AD86-C0187555AB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25005" yWindow="2940" windowWidth="21600" windowHeight="11400" xr2:uid="{FD771F25-7425-42AF-85A8-75B299B93A24}"/>
+    <workbookView xWindow="-120" yWindow="300" windowWidth="29040" windowHeight="15420" activeTab="1" xr2:uid="{FD771F25-7425-42AF-85A8-75B299B93A24}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -58,9 +58,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>F0CAN062CW;FO</t>
-  </si>
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>BATS:MTUM</t>
+  </si>
+  <si>
+    <t>TSE:HTB</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0D4603-518D-4157-8DC2-FD1622EBDADA}">
   <dimension ref="A1:Y302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -540,48 +540,48 @@
         <v>44135</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7" t="str">
         <f>_xll.MSDP(B1,"name")</f>
@@ -9349,8 +9349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B673FE-1674-4523-AC51-4FF77E8804E1}">
   <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9365,63 +9365,63 @@
         <v>44135</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7" t="str">
         <f>_xll.MSDP(B1,"name")</f>
-        <v>RBC Canadian Bond Index Fund F</v>
+        <v>PIMCO Investment Grade Credit Bond Hdg CAD (CS)</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.MSDP(C1,"name")</f>
-        <v>PIMCO Investment Grade Credit Bond Hdg CAD (CS)</v>
+        <v>PIMCO Investment Grade Credit Bond Adm</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.MSDP(D1,"name")</f>
-        <v>PIMCO Investment Grade Credit Bond Adm</v>
+        <v>Horizons US 7-10 Year Treasury Bond ETF</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>_xll.MSDP(E1,"name")</f>
@@ -9474,15 +9474,15 @@
         <v>44135</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.74890999999999996</v>
+        <v>-0.54817053449898101</v>
       </c>
       <c r="C3" s="3">
         <f>_xll.MSTS(C1,"Return","ED-15Y",$A$1,"Freq=M,Dates=FALSE,Ascending=False")</f>
-        <v>-0.54817053449898179</v>
+        <v>-0.53864999999999996</v>
       </c>
       <c r="D3" s="3">
         <f>_xll.MSTS(D1,"Return","ED-15Y",$A$1,"Freq=M,Dates=FALSE,Ascending=False,CURR=CAD")</f>
-        <v>-0.71735652442448838</v>
+        <v>-1.49027</v>
       </c>
       <c r="E3" s="3">
         <f>_xll.MSTS(E1,"Return","ED-15Y",$A$1,"Freq=M,Dates=FALSE,Ascending=False")</f>
@@ -9534,13 +9534,13 @@
         <v>44104</v>
       </c>
       <c r="B4" s="3">
-        <v>0.30545</v>
+        <v>-0.39770404374773699</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.39770404374773699</v>
+        <v>-0.37822</v>
       </c>
       <c r="D4" s="3">
-        <v>2.1296232664338501</v>
+        <v>2.63774</v>
       </c>
       <c r="E4" s="3">
         <v>-0.90049999999999997</v>
@@ -9581,13 +9581,13 @@
         <v>44074</v>
       </c>
       <c r="B5" s="3">
-        <v>-1.16333</v>
+        <v>-0.55644146493746205</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.55644146493746205</v>
+        <v>-0.56361000000000006</v>
       </c>
       <c r="D5" s="3">
-        <v>-3.27686125382604</v>
+        <v>-4.1155299999999997</v>
       </c>
       <c r="E5" s="3">
         <v>2.31331</v>
@@ -9628,13 +9628,13 @@
         <v>44043</v>
       </c>
       <c r="B6" s="3">
-        <v>1.26285</v>
+        <v>2.8711299725678798</v>
       </c>
       <c r="C6" s="3">
-        <v>2.8711299725678798</v>
+        <v>2.9283299999999999</v>
       </c>
       <c r="D6" s="3">
-        <v>1.2279721255506599</v>
+        <v>-1.4959999999999999E-2</v>
       </c>
       <c r="E6" s="3">
         <v>3.6854800000000001</v>
@@ -9675,13 +9675,13 @@
         <v>44012</v>
       </c>
       <c r="B7" s="3">
-        <v>1.64686</v>
+        <v>1.88814489228767</v>
       </c>
       <c r="C7" s="3">
-        <v>1.88814489228767</v>
+        <v>1.9183300000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>0.42885650412385701</v>
+        <v>-1.5468500000000001</v>
       </c>
       <c r="E7" s="3">
         <v>3.0605000000000002</v>
@@ -9722,13 +9722,13 @@
         <v>43982</v>
       </c>
       <c r="B8" s="3">
-        <v>0.29530000000000001</v>
+        <v>1.84809773324663</v>
       </c>
       <c r="C8" s="3">
-        <v>1.84809773324663</v>
+        <v>1.86581</v>
       </c>
       <c r="D8" s="3">
-        <v>1.37076394542641</v>
+        <v>-0.58582000000000001</v>
       </c>
       <c r="E8" s="3">
         <v>2.32681</v>
@@ -9769,13 +9769,13 @@
         <v>43951</v>
       </c>
       <c r="B9" s="3">
-        <v>3.7846299999999999</v>
+        <v>4.3935362653184198</v>
       </c>
       <c r="C9" s="3">
-        <v>4.3935362653184198</v>
+        <v>4.5311399999999997</v>
       </c>
       <c r="D9" s="3">
-        <v>2.0047963628060401</v>
+        <v>-1.25813</v>
       </c>
       <c r="E9" s="3">
         <v>6.3154700000000004</v>
@@ -9816,13 +9816,13 @@
         <v>43921</v>
       </c>
       <c r="B10" s="3">
-        <v>-2.1770800000000001</v>
+        <v>-9.5233611690088793</v>
       </c>
       <c r="C10" s="3">
-        <v>-9.5233611690088793</v>
+        <v>-8.9799900000000008</v>
       </c>
       <c r="D10" s="3">
-        <v>-3.4876662319812302</v>
+        <v>9.17272</v>
       </c>
       <c r="E10" s="3">
         <v>-7.6359500000000002</v>
@@ -9863,13 +9863,13 @@
         <v>43890</v>
       </c>
       <c r="B11" s="3">
-        <v>0.68728</v>
+        <v>0.66116331722978405</v>
       </c>
       <c r="C11" s="3">
-        <v>0.66116331722978405</v>
+        <v>0.64693999999999996</v>
       </c>
       <c r="D11" s="3">
-        <v>2.15373324940456</v>
+        <v>4.3492600000000001</v>
       </c>
       <c r="E11" s="3">
         <v>-0.20102</v>
@@ -9910,13 +9910,13 @@
         <v>43861</v>
       </c>
       <c r="B12" s="3">
-        <v>2.8582100000000001</v>
+        <v>2.5491319945373898</v>
       </c>
       <c r="C12" s="3">
-        <v>2.5491319945373898</v>
+        <v>2.5160499999999999</v>
       </c>
       <c r="D12" s="3">
-        <v>4.5556984210526199</v>
+        <v>5.4734999999999996</v>
       </c>
       <c r="E12" s="3">
         <v>0.81233</v>
@@ -9957,13 +9957,13 @@
         <v>43830</v>
       </c>
       <c r="B13" s="3">
-        <v>-1.198</v>
+        <v>0.27129376458569998</v>
       </c>
       <c r="C13" s="3">
-        <v>0.27129376458569998</v>
+        <v>0.31486999999999998</v>
       </c>
       <c r="D13" s="3">
-        <v>-2.06413877470353</v>
+        <v>-3.0655199999999998</v>
       </c>
       <c r="E13" s="3">
         <v>0.64895000000000003</v>
@@ -10004,13 +10004,13 @@
         <v>43799</v>
       </c>
       <c r="B14" s="3">
-        <v>0.49514999999999998</v>
+        <v>0.12849460888344399</v>
       </c>
       <c r="C14" s="3">
-        <v>0.12849460888344399</v>
+        <v>0.13394</v>
       </c>
       <c r="D14" s="3">
-        <v>1.19291345912427</v>
+        <v>0.20252999999999999</v>
       </c>
       <c r="E14" s="3">
         <v>0.70387999999999995</v>
@@ -10051,13 +10051,13 @@
         <v>43769</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.17161000000000001</v>
+        <v>0.80168796479869098</v>
       </c>
       <c r="C15" s="3">
-        <v>0.80168796479869098</v>
+        <v>0.85702</v>
       </c>
       <c r="D15" s="3">
-        <v>0.121921629154087</v>
+        <v>-0.35317999999999999</v>
       </c>
       <c r="E15" s="3">
         <v>0.3422</v>
@@ -10098,13 +10098,13 @@
         <v>43738</v>
       </c>
       <c r="B16" s="3">
-        <v>-0.85321000000000002</v>
+        <v>-0.49698084105069801</v>
       </c>
       <c r="C16" s="3">
-        <v>-0.49698084105069801</v>
+        <v>-0.44891999999999999</v>
       </c>
       <c r="D16" s="3">
-        <v>-0.80852655027091203</v>
+        <v>-1.67025</v>
       </c>
       <c r="E16" s="3">
         <v>0.25208000000000003</v>
@@ -10145,13 +10145,13 @@
         <v>43708</v>
       </c>
       <c r="B17" s="3">
-        <v>1.85589</v>
+        <v>2.8292842266887299</v>
       </c>
       <c r="C17" s="3">
-        <v>2.8292842266887299</v>
+        <v>2.85765</v>
       </c>
       <c r="D17" s="3">
-        <v>4.0834979400677698</v>
+        <v>6.08772</v>
       </c>
       <c r="E17" s="3">
         <v>-2.7879999999999999E-2</v>
@@ -10192,13 +10192,13 @@
         <v>43677</v>
       </c>
       <c r="B18" s="3">
-        <v>0.1295</v>
+        <v>0.42888945985948201</v>
       </c>
       <c r="C18" s="3">
-        <v>0.42888945985948201</v>
+        <v>0.49991000000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>0.99212306600342903</v>
+        <v>-0.40189000000000002</v>
       </c>
       <c r="E18" s="3">
         <v>0.54844000000000004</v>
@@ -10239,13 +10239,13 @@
         <v>43646</v>
       </c>
       <c r="B19" s="3">
-        <v>0.89814000000000005</v>
+        <v>1.9682957250867399</v>
       </c>
       <c r="C19" s="3">
-        <v>1.9682957250867399</v>
+        <v>2.11896</v>
       </c>
       <c r="D19" s="3">
-        <v>-1.2915519047266699</v>
+        <v>-2.0705</v>
       </c>
       <c r="E19" s="3">
         <v>0.33073999999999998</v>
@@ -10286,13 +10286,13 @@
         <v>43616</v>
       </c>
       <c r="B20" s="3">
-        <v>1.68869</v>
+        <v>1.23863453656332</v>
       </c>
       <c r="C20" s="3">
-        <v>1.23863453656332</v>
+        <v>1.31386</v>
       </c>
       <c r="D20" s="3">
-        <v>1.8184711076419899</v>
+        <v>3.7457799999999999</v>
       </c>
       <c r="E20" s="3">
         <v>2.359E-2</v>
@@ -10333,13 +10333,13 @@
         <v>43585</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.13102</v>
+        <v>0.544689374956286</v>
       </c>
       <c r="C21" s="3">
-        <v>0.544689374956286</v>
+        <v>0.61604000000000003</v>
       </c>
       <c r="D21" s="3">
-        <v>1.3126965889441899</v>
+        <v>1.7760000000000001E-2</v>
       </c>
       <c r="E21" s="3">
         <v>0.62141999999999997</v>
@@ -10380,13 +10380,13 @@
         <v>43555</v>
       </c>
       <c r="B22" s="3">
-        <v>2.3062399999999998</v>
+        <v>2.2679477147835501</v>
       </c>
       <c r="C22" s="3">
-        <v>2.2679477147835501</v>
+        <v>2.3106300000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>3.7827533397874</v>
+        <v>4.2769899999999996</v>
       </c>
       <c r="E22" s="3">
         <v>0.51168999999999998</v>
@@ -10427,13 +10427,13 @@
         <v>43524</v>
       </c>
       <c r="B23" s="3">
-        <v>0.18784999999999999</v>
+        <v>0.55325807000226002</v>
       </c>
       <c r="C23" s="3">
-        <v>0.55325807000226002</v>
+        <v>0.61624000000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>0.899709190588595</v>
+        <v>-0.46073999999999998</v>
       </c>
       <c r="E23" s="3">
         <v>0.50988</v>
@@ -10474,13 +10474,13 @@
         <v>43496</v>
       </c>
       <c r="B24" s="3">
-        <v>1.3193299999999999</v>
+        <v>2.2595665576920099</v>
       </c>
       <c r="C24" s="3">
-        <v>2.2595665576920099</v>
+        <v>2.4351500000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>-1.5023557658515101</v>
+        <v>-3.1244399999999999</v>
       </c>
       <c r="E24" s="3">
         <v>1.1429499999999999</v>
@@ -10521,13 +10521,13 @@
         <v>43465</v>
       </c>
       <c r="B25" s="3">
-        <v>1.34823</v>
+        <v>1.05148177126666</v>
       </c>
       <c r="C25" s="3">
-        <v>1.05148177126666</v>
+        <v>1.11476</v>
       </c>
       <c r="D25" s="3">
-        <v>3.9068085230607101</v>
+        <v>5.7790400000000002</v>
       </c>
       <c r="E25" s="3">
         <v>-0.16767000000000001</v>
@@ -10568,13 +10568,13 @@
         <v>43434</v>
       </c>
       <c r="B26" s="3">
-        <v>0.96840999999999999</v>
+        <v>-0.214425928032069</v>
       </c>
       <c r="C26" s="3">
-        <v>-0.214425928032069</v>
+        <v>-0.15844</v>
       </c>
       <c r="D26" s="3">
-        <v>1.0465771147915399</v>
+        <v>2.1412</v>
       </c>
       <c r="E26" s="3">
         <v>-0.39293</v>
@@ -10615,13 +10615,13 @@
         <v>43404</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.65449000000000002</v>
+        <v>-1.2649383885299601</v>
       </c>
       <c r="C27" s="3">
-        <v>-1.2649383885299601</v>
+        <v>-1.1780600000000001</v>
       </c>
       <c r="D27" s="3">
-        <v>0.40067515472691101</v>
+        <v>1.38862</v>
       </c>
       <c r="E27" s="3">
         <v>-0.27526</v>
@@ -10662,13 +10662,13 @@
         <v>43373</v>
       </c>
       <c r="B28" s="3">
-        <v>-0.98548000000000002</v>
+        <v>-0.35961706228525497</v>
       </c>
       <c r="C28" s="3">
-        <v>-0.35961706228525497</v>
+        <v>-0.30395</v>
       </c>
       <c r="D28" s="3">
-        <v>-1.1717364699566699</v>
+        <v>-2.2183999999999999</v>
       </c>
       <c r="E28" s="3">
         <v>-3.5249999999999997E-2</v>
@@ -10709,13 +10709,13 @@
         <v>43343</v>
       </c>
       <c r="B29" s="3">
-        <v>0.77249999999999996</v>
+        <v>0.28270523709161799</v>
       </c>
       <c r="C29" s="3">
-        <v>0.28270523709161799</v>
+        <v>0.33977000000000002</v>
       </c>
       <c r="D29" s="3">
-        <v>0.49004845737326203</v>
+        <v>1.4551799999999999</v>
       </c>
       <c r="E29" s="3">
         <v>0.16689999999999999</v>
@@ -10756,13 +10756,13 @@
         <v>43312</v>
       </c>
       <c r="B30" s="3">
-        <v>-0.74868000000000001</v>
+        <v>0.73520165944349603</v>
       </c>
       <c r="C30" s="3">
-        <v>0.73520165944349603</v>
+        <v>0.79503000000000001</v>
       </c>
       <c r="D30" s="3">
-        <v>-0.23556268957390999</v>
+        <v>-1.7537199999999999</v>
       </c>
       <c r="E30" s="3">
         <v>0.37012</v>
@@ -10803,13 +10803,13 @@
         <v>43281</v>
       </c>
       <c r="B31" s="3">
-        <v>0.55901000000000001</v>
+        <v>-0.36576917489457</v>
       </c>
       <c r="C31" s="3">
-        <v>-0.36576917489457</v>
+        <v>-0.27096999999999999</v>
       </c>
       <c r="D31" s="3">
-        <v>1.13209413621646</v>
+        <v>1.7060900000000001</v>
       </c>
       <c r="E31" s="3">
         <v>7.2899999999999996E-3</v>
@@ -10850,13 +10850,13 @@
         <v>43251</v>
       </c>
       <c r="B32" s="3">
-        <v>0.80725000000000002</v>
+        <v>-0.25511717850652499</v>
       </c>
       <c r="C32" s="3">
-        <v>-0.25511717850652499</v>
+        <v>-0.18970000000000001</v>
       </c>
       <c r="D32" s="3">
-        <v>0.99763731814812195</v>
+        <v>2.1183900000000002</v>
       </c>
       <c r="E32" s="3">
         <v>0.44540000000000002</v>
@@ -10897,13 +10897,13 @@
         <v>43220</v>
       </c>
       <c r="B33" s="3">
-        <v>-0.87302999999999997</v>
+        <v>-0.93738344061771095</v>
       </c>
       <c r="C33" s="3">
-        <v>-0.93738344061771095</v>
+        <v>-0.88575999999999999</v>
       </c>
       <c r="D33" s="3">
-        <v>-1.44696531471787</v>
+        <v>-1.57833</v>
       </c>
       <c r="E33" s="3">
         <v>9.9169999999999994E-2</v>
@@ -10944,13 +10944,13 @@
         <v>43190</v>
       </c>
       <c r="B34" s="3">
-        <v>0.75812999999999997</v>
+        <v>0.44330148940963099</v>
       </c>
       <c r="C34" s="3">
-        <v>0.44330148940963099</v>
+        <v>0.50263999999999998</v>
       </c>
       <c r="D34" s="3">
-        <v>1.12227620868615</v>
+        <v>2.64</v>
       </c>
       <c r="E34" s="3">
         <v>9.5060000000000006E-2</v>
@@ -10991,13 +10991,13 @@
         <v>43159</v>
       </c>
       <c r="B35" s="3">
-        <v>0.14208000000000001</v>
+        <v>-1.3416170193365</v>
       </c>
       <c r="C35" s="3">
-        <v>-1.3416170193365</v>
+        <v>-1.25335</v>
       </c>
       <c r="D35" s="3">
-        <v>3.1332436544809901</v>
+        <v>2.0408200000000001</v>
       </c>
       <c r="E35" s="3">
         <v>-7.5209999999999999E-2</v>
@@ -11038,13 +11038,13 @@
         <v>43131</v>
       </c>
       <c r="B36" s="3">
-        <v>-0.79898999999999998</v>
+        <v>-0.79898435126937095</v>
       </c>
       <c r="C36" s="3">
-        <v>-0.79898435126937095</v>
+        <v>-0.76788000000000001</v>
       </c>
       <c r="D36" s="3">
-        <v>-2.8349683371243901</v>
+        <v>-4.18459</v>
       </c>
       <c r="E36" s="3">
         <v>0.39155000000000001</v>
@@ -11085,13 +11085,13 @@
         <v>43100</v>
       </c>
       <c r="B37" s="3">
-        <v>-0.42712</v>
+        <v>0.53053316802960104</v>
       </c>
       <c r="C37" s="3">
-        <v>0.53053316802960104</v>
+        <v>0.60294000000000003</v>
       </c>
       <c r="D37" s="3">
-        <v>-2.1575303322207402</v>
+        <v>-2.4418199999999999</v>
       </c>
       <c r="E37" s="3">
         <v>0.14224000000000001</v>
@@ -11132,13 +11132,13 @@
         <v>43069</v>
       </c>
       <c r="B38" s="3">
-        <v>0.79427000000000003</v>
+        <v>-0.103219682414146</v>
       </c>
       <c r="C38" s="3">
-        <v>-0.103219682414146</v>
+        <v>-7.843E-2</v>
       </c>
       <c r="D38" s="3">
-        <v>-0.14044012799625699</v>
+        <v>-0.24737999999999999</v>
       </c>
       <c r="E38" s="3">
         <v>-5.0470000000000001E-2</v>
@@ -11179,13 +11179,13 @@
         <v>43039</v>
       </c>
       <c r="B39" s="3">
-        <v>1.5944</v>
+        <v>0.264916635849754</v>
       </c>
       <c r="C39" s="3">
-        <v>0.264916635849754</v>
+        <v>0.27873999999999999</v>
       </c>
       <c r="D39" s="3">
-        <v>3.3617108975332699</v>
+        <v>2.89798</v>
       </c>
       <c r="E39" s="3">
         <v>1.05071</v>
@@ -11226,13 +11226,13 @@
         <v>43008</v>
       </c>
       <c r="B40" s="3">
-        <v>-1.3003199999999999</v>
+        <v>-0.120870958606278</v>
       </c>
       <c r="C40" s="3">
-        <v>-0.120870958606278</v>
+        <v>-8.8400000000000006E-2</v>
       </c>
       <c r="D40" s="3">
-        <v>-0.33543964905281598</v>
+        <v>-2.2022200000000001</v>
       </c>
       <c r="E40" s="3">
         <v>-0.17568</v>
@@ -11273,13 +11273,13 @@
         <v>42978</v>
       </c>
       <c r="B41" s="3">
-        <v>1.3838900000000001</v>
+        <v>0.988350721455999</v>
       </c>
       <c r="C41" s="3">
-        <v>0.988350721455999</v>
+        <v>1.0344800000000001</v>
       </c>
       <c r="D41" s="3">
-        <v>1.2930145136139899</v>
+        <v>2.07193</v>
       </c>
       <c r="E41" s="3">
         <v>0.92413999999999996</v>
@@ -11320,13 +11320,13 @@
         <v>42947</v>
       </c>
       <c r="B42" s="3">
-        <v>-1.91405</v>
+        <v>0.64856585673349598</v>
       </c>
       <c r="C42" s="3">
-        <v>0.64856585673349598</v>
+        <v>0.73831000000000002</v>
       </c>
       <c r="D42" s="3">
-        <v>-2.99661694733194</v>
+        <v>-3.6353399999999998</v>
       </c>
       <c r="E42" s="3">
         <v>-6.3839999999999994E-2</v>
@@ -11367,13 +11367,13 @@
         <v>42916</v>
       </c>
       <c r="B43" s="3">
-        <v>-1.15419</v>
+        <v>0.33218242430175199</v>
       </c>
       <c r="C43" s="3">
-        <v>0.33218242430175199</v>
+        <v>0.40787000000000001</v>
       </c>
       <c r="D43" s="3">
-        <v>-3.4576880365736198</v>
+        <v>-3.63042</v>
       </c>
       <c r="E43" s="3">
         <v>-0.24335000000000001</v>
@@ -11414,13 +11414,13 @@
         <v>42886</v>
       </c>
       <c r="B44" s="3">
-        <v>0.80967</v>
+        <v>1.0158008126968501</v>
       </c>
       <c r="C44" s="3">
-        <v>1.0158008126968501</v>
+        <v>1.0719700000000001</v>
       </c>
       <c r="D44" s="3">
-        <v>-0.15511601038542699</v>
+        <v>-0.61338999999999999</v>
       </c>
       <c r="E44" s="3">
         <v>0.36571999999999999</v>
@@ -11461,13 +11461,13 @@
         <v>42855</v>
       </c>
       <c r="B45" s="3">
-        <v>1.41401</v>
+        <v>1.13184212386334</v>
       </c>
       <c r="C45" s="3">
-        <v>1.13184212386334</v>
+        <v>1.1456500000000001</v>
       </c>
       <c r="D45" s="3">
-        <v>3.6977072282832699</v>
+        <v>3.6268500000000001</v>
       </c>
       <c r="E45" s="3">
         <v>0.64822000000000002</v>
@@ -11508,13 +11508,13 @@
         <v>42825</v>
       </c>
       <c r="B46" s="3">
-        <v>0.40669</v>
+        <v>0.38756114657607599</v>
       </c>
       <c r="C46" s="3">
-        <v>0.38756114657607599</v>
+        <v>0.40740999999999999</v>
       </c>
       <c r="D46" s="3">
-        <v>1.1048679425421899</v>
+        <v>0.30002000000000001</v>
       </c>
       <c r="E46" s="3">
         <v>9.3299999999999998E-3</v>
@@ -11555,13 +11555,13 @@
         <v>42794</v>
       </c>
       <c r="B47" s="3">
-        <v>0.95076000000000005</v>
+        <v>1.25249619186047</v>
       </c>
       <c r="C47" s="3">
-        <v>1.25249619186047</v>
+        <v>1.25935</v>
       </c>
       <c r="D47" s="3">
-        <v>2.8670727574304902</v>
+        <v>2.7355</v>
       </c>
       <c r="E47" s="3">
         <v>-0.53576999999999997</v>
@@ -11602,13 +11602,13 @@
         <v>42766</v>
       </c>
       <c r="B48" s="3">
-        <v>-0.17918999999999999</v>
+        <v>0.59694661432740903</v>
       </c>
       <c r="C48" s="3">
-        <v>0.59694661432740903</v>
+        <v>0.65390999999999999</v>
       </c>
       <c r="D48" s="3">
-        <v>-2.14568050221841</v>
+        <v>-2.8630200000000001</v>
       </c>
       <c r="E48" s="3">
         <v>0.80030000000000001</v>
@@ -11649,13 +11649,13 @@
         <v>42735</v>
       </c>
       <c r="B49" s="3">
-        <v>-0.50505999999999995</v>
+        <v>0.88002143514938003</v>
       </c>
       <c r="C49" s="3">
-        <v>0.88002143514938003</v>
+        <v>0.91888000000000003</v>
       </c>
       <c r="D49" s="3">
-        <v>0.65243494273390401</v>
+        <v>-0.26129000000000002</v>
       </c>
       <c r="E49" s="3">
         <v>1.2341800000000001</v>
@@ -11696,13 +11696,13 @@
         <v>42704</v>
       </c>
       <c r="B50" s="3">
-        <v>-2.1359499999999998</v>
+        <v>-2.9732054574859701</v>
       </c>
       <c r="C50" s="3">
-        <v>-2.9732054574859701</v>
+        <v>-2.9442599999999999</v>
       </c>
       <c r="D50" s="3">
-        <v>-2.6292497638500101</v>
+        <v>-3.68506</v>
       </c>
       <c r="E50" s="3">
         <v>-0.13704</v>
@@ -11743,13 +11743,13 @@
         <v>42674</v>
       </c>
       <c r="B51" s="3">
-        <v>-0.93628</v>
+        <v>-0.70637178396024602</v>
       </c>
       <c r="C51" s="3">
-        <v>-0.70637178396024602</v>
+        <v>-0.66803999999999997</v>
       </c>
       <c r="D51" s="3">
-        <v>1.2970586950732399</v>
+        <v>0.28843999999999997</v>
       </c>
       <c r="E51" s="3">
         <v>0.90259999999999996</v>
@@ -11790,13 +11790,13 @@
         <v>42643</v>
       </c>
       <c r="B52" s="3">
-        <v>0.17591000000000001</v>
+        <v>0.19560930882507299</v>
       </c>
       <c r="C52" s="3">
-        <v>0.19560930882507299</v>
+        <v>0.21204000000000001</v>
       </c>
       <c r="D52" s="3">
-        <v>0.380072078045813</v>
+        <v>0.47093000000000002</v>
       </c>
       <c r="E52" s="3">
         <v>1.3950000000000001E-2</v>
@@ -11837,13 +11837,13 @@
         <v>42613</v>
       </c>
       <c r="B53" s="3">
-        <v>4.7350000000000003E-2</v>
+        <v>0.26765486337765299</v>
       </c>
       <c r="C53" s="3">
-        <v>0.26765486337765299</v>
+        <v>0.28660999999999998</v>
       </c>
       <c r="D53" s="3">
-        <v>0.90184168590160096</v>
+        <v>-0.23491000000000001</v>
       </c>
       <c r="E53" s="3">
         <v>1.66293</v>
@@ -11884,13 +11884,13 @@
         <v>42582</v>
       </c>
       <c r="B54" s="3">
-        <v>0.84604000000000001</v>
+        <v>1.7261233682136901</v>
       </c>
       <c r="C54" s="3">
-        <v>1.7261233682136901</v>
+        <v>1.73051</v>
       </c>
       <c r="D54" s="3">
-        <v>2.1495892550242499</v>
+        <v>0.69140999999999997</v>
       </c>
       <c r="E54" s="3">
         <v>1.44547</v>
@@ -11931,13 +11931,13 @@
         <v>42551</v>
       </c>
       <c r="B55" s="3">
-        <v>1.7036199999999999</v>
+        <v>2.1423674132974702</v>
       </c>
       <c r="C55" s="3">
-        <v>2.1423674132974702</v>
+        <v>2.1555900000000001</v>
       </c>
       <c r="D55" s="3">
-        <v>1.4215004456845799</v>
+        <v>1.7401</v>
       </c>
       <c r="E55" s="3">
         <v>2.2110000000000001E-2</v>
@@ -11978,13 +11978,13 @@
         <v>42521</v>
       </c>
       <c r="B56" s="3">
-        <v>0.80640999999999996</v>
+        <v>0.42075094895628301</v>
       </c>
       <c r="C56" s="3">
-        <v>0.42075094895628301</v>
+        <v>0.40287000000000001</v>
       </c>
       <c r="D56" s="3">
-        <v>4.8515042687210697</v>
+        <v>4.2655900000000004</v>
       </c>
       <c r="E56" s="3">
         <v>1.0523400000000001</v>
@@ -12025,13 +12025,13 @@
         <v>42490</v>
       </c>
       <c r="B57" s="3">
-        <v>-4.7789999999999999E-2</v>
+        <v>1.25014293292669</v>
       </c>
       <c r="C57" s="3">
-        <v>1.25014293292669</v>
+        <v>1.29572</v>
       </c>
       <c r="D57" s="3">
-        <v>-1.9034219552359899</v>
+        <v>-4.6558700000000002</v>
       </c>
       <c r="E57" s="3">
         <v>3.01742</v>
@@ -12072,13 +12072,13 @@
         <v>42460</v>
       </c>
       <c r="B58" s="3">
-        <v>0.88551000000000002</v>
+        <v>2.3183252379833399</v>
       </c>
       <c r="C58" s="3">
-        <v>2.3183252379833399</v>
+        <v>2.42869</v>
       </c>
       <c r="D58" s="3">
-        <v>-2.19519483205374</v>
+        <v>-2.59903</v>
       </c>
       <c r="E58" s="3">
         <v>0.12901000000000001</v>
@@ -12119,13 +12119,13 @@
         <v>42429</v>
       </c>
       <c r="B59" s="3">
-        <v>0.15431</v>
+        <v>0.30907037985028402</v>
       </c>
       <c r="C59" s="3">
-        <v>0.30907037985028402</v>
+        <v>0.3211</v>
       </c>
       <c r="D59" s="3">
-        <v>-3.4322529330253801</v>
+        <v>-2.27711</v>
       </c>
       <c r="E59" s="3">
         <v>-1.417E-2</v>
@@ -12166,13 +12166,13 @@
         <v>42400</v>
       </c>
       <c r="B60" s="3">
-        <v>0.29976999999999998</v>
+        <v>0.49496362945768901</v>
       </c>
       <c r="C60" s="3">
-        <v>0.49496362945768901</v>
+        <v>0.49568000000000001</v>
       </c>
       <c r="D60" s="3">
-        <v>1.80875795839031</v>
+        <v>4.6179199999999998</v>
       </c>
       <c r="E60" s="3">
         <v>-1.4075500000000001</v>
@@ -12213,13 +12213,13 @@
         <v>42369</v>
       </c>
       <c r="B61" s="3">
-        <v>1.08291</v>
+        <v>-0.94360242070858902</v>
       </c>
       <c r="C61" s="3">
-        <v>-0.94360242070858902</v>
+        <v>-0.90820000000000001</v>
       </c>
       <c r="D61" s="3">
-        <v>3.36681513911312</v>
+        <v>2.9622600000000001</v>
       </c>
       <c r="E61" s="3">
         <v>0.4919</v>
@@ -12260,13 +12260,13 @@
         <v>42338</v>
       </c>
       <c r="B62" s="3">
-        <v>4.6670000000000003E-2</v>
+        <v>-0.43643024684036902</v>
       </c>
       <c r="C62" s="3">
-        <v>-0.43643024684036902</v>
+        <v>-0.44757000000000002</v>
       </c>
       <c r="D62" s="3">
-        <v>1.3253283979821899</v>
+        <v>0.62653999999999999</v>
       </c>
       <c r="E62" s="3">
         <v>-0.72946</v>
@@ -12307,13 +12307,13 @@
         <v>42308</v>
       </c>
       <c r="B63" s="3">
-        <v>-0.23526</v>
+        <v>1.2914899440401999</v>
       </c>
       <c r="C63" s="3">
-        <v>1.2914899440401999</v>
+        <v>1.3081700000000001</v>
       </c>
       <c r="D63" s="3">
-        <v>-1.1363137021705101</v>
+        <v>-1.4408700000000001</v>
       </c>
       <c r="E63" s="3">
         <v>-0.47228999999999999</v>
@@ -12354,13 +12354,13 @@
         <v>42277</v>
       </c>
       <c r="B64" s="3">
-        <v>-0.35555999999999999</v>
+        <v>-0.63889494131656999</v>
       </c>
       <c r="C64" s="3">
-        <v>-0.63889494131656999</v>
+        <v>-0.64224999999999999</v>
       </c>
       <c r="D64" s="3">
-        <v>0.11945541149942999</v>
+        <v>2.7494700000000001</v>
       </c>
       <c r="E64" s="3">
         <v>0.55498000000000003</v>
@@ -12401,13 +12401,13 @@
         <v>42247</v>
       </c>
       <c r="B65" s="3">
-        <v>-1.0665</v>
+        <v>-1.2203837932878101</v>
       </c>
       <c r="C65" s="3">
-        <v>-1.2203837932878101</v>
+        <v>-1.2135800000000001</v>
       </c>
       <c r="D65" s="3">
-        <v>1.0302715784618901</v>
+        <v>1.7012100000000001</v>
       </c>
       <c r="E65" s="3">
         <v>-0.92081000000000002</v>
@@ -12448,13 +12448,13 @@
         <v>42216</v>
       </c>
       <c r="B66" s="3">
-        <v>1.3950899999999999</v>
+        <v>1.3948019023783</v>
       </c>
       <c r="C66" s="3">
-        <v>1.3948019023783</v>
+        <v>1.29701</v>
       </c>
       <c r="D66" s="3">
-        <v>5.5567665180824202</v>
+        <v>6.9427000000000003</v>
       </c>
       <c r="E66" s="3">
         <v>-0.12751999999999999</v>
@@ -12495,13 +12495,13 @@
         <v>42185</v>
       </c>
       <c r="B67" s="3">
-        <v>-0.63434000000000001</v>
+        <v>-1.61477147631706</v>
       </c>
       <c r="C67" s="3">
-        <v>-1.61477147631706</v>
+        <v>-1.66337</v>
       </c>
       <c r="D67" s="3">
-        <v>-1.64761408091327</v>
+        <v>-2.62676</v>
       </c>
       <c r="E67" s="3">
         <v>-1.02067</v>
@@ -12542,13 +12542,13 @@
         <v>42155</v>
       </c>
       <c r="B68" s="3">
-        <v>0.16827</v>
+        <v>-0.232489965644988</v>
       </c>
       <c r="C68" s="3">
-        <v>-0.232489965644988</v>
+        <v>-0.26645999999999997</v>
       </c>
       <c r="D68" s="3">
-        <v>2.78009602063984</v>
+        <v>0.80049000000000003</v>
       </c>
       <c r="E68" s="3">
         <v>2.0771000000000002</v>
@@ -12589,14 +12589,12 @@
         <v>42124</v>
       </c>
       <c r="B69" s="3">
-        <v>-1.3641399999999999</v>
+        <v>-0.30610566963095098</v>
       </c>
       <c r="C69" s="3">
-        <v>-0.30610566963095098</v>
-      </c>
-      <c r="D69" s="3">
-        <v>-4.7048560402684503</v>
-      </c>
+        <v>-0.35805999999999999</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3">
         <v>-0.93569000000000002</v>
       </c>
@@ -12636,14 +12634,12 @@
         <v>42094</v>
       </c>
       <c r="B70" s="3">
-        <v>-0.37981999999999999</v>
+        <v>0.50880235905461602</v>
       </c>
       <c r="C70" s="3">
-        <v>0.50880235905461602</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1.8919206262763699</v>
-      </c>
+        <v>0.45585999999999999</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3">
         <v>-0.22289</v>
       </c>
@@ -12683,14 +12679,12 @@
         <v>42063</v>
       </c>
       <c r="B71" s="3">
-        <v>-0.10851</v>
+        <v>-0.51112966353632405</v>
       </c>
       <c r="C71" s="3">
-        <v>-0.51112966353632405</v>
-      </c>
-      <c r="D71" s="3">
-        <v>-2.07509521274496</v>
-      </c>
+        <v>-0.5615</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3">
         <v>3.4840000000000003E-2</v>
       </c>
@@ -12730,14 +12724,12 @@
         <v>42035</v>
       </c>
       <c r="B72" s="3">
-        <v>4.49573</v>
+        <v>3.4879253038166702</v>
       </c>
       <c r="C72" s="3">
-        <v>3.4879253038166702</v>
-      </c>
-      <c r="D72" s="3">
-        <v>12.892652128210599</v>
-      </c>
+        <v>3.1254499999999998</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3">
         <v>2.8839899999999998</v>
       </c>
@@ -12777,14 +12769,12 @@
         <v>42004</v>
       </c>
       <c r="B73" s="3">
-        <v>0.49864999999999998</v>
+        <v>-0.82389494961465604</v>
       </c>
       <c r="C73" s="3">
-        <v>-0.82389494961465604</v>
-      </c>
-      <c r="D73" s="3">
-        <v>0.68102219030913602</v>
-      </c>
+        <v>-0.88363000000000003</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3">
         <v>5.3510000000000002E-2</v>
       </c>
@@ -12824,14 +12814,12 @@
         <v>41973</v>
       </c>
       <c r="B74" s="3">
-        <v>1.5336799999999999</v>
+        <v>1.2900198708811501</v>
       </c>
       <c r="C74" s="3">
-        <v>1.2900198708811501</v>
-      </c>
-      <c r="D74" s="3">
-        <v>2.3517304470264602</v>
-      </c>
+        <v>1.2027699999999999</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3">
         <v>2.1770800000000001</v>
       </c>
@@ -12871,14 +12859,12 @@
         <v>41943</v>
       </c>
       <c r="B75" s="3">
-        <v>0.51831000000000005</v>
+        <v>1.44260624081806</v>
       </c>
       <c r="C75" s="3">
-        <v>1.44260624081806</v>
-      </c>
-      <c r="D75" s="3">
-        <v>2.2497323435192902</v>
-      </c>
+        <v>1.35189</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3">
         <v>0.92310999999999999</v>
       </c>
@@ -12918,14 +12904,12 @@
         <v>41912</v>
       </c>
       <c r="B76" s="3">
-        <v>-0.65620000000000001</v>
+        <v>-1.26379503071845</v>
       </c>
       <c r="C76" s="3">
-        <v>-1.26379503071845</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1.6907655519704801</v>
-      </c>
+        <v>-1.2938499999999999</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3">
         <v>0.1431</v>
       </c>
@@ -12965,14 +12949,12 @@
         <v>41882</v>
       </c>
       <c r="B77" s="3">
-        <v>0.98948999999999998</v>
+        <v>1.7828248705513201</v>
       </c>
       <c r="C77" s="3">
-        <v>1.7828248705513201</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1.34926912919674</v>
-      </c>
+        <v>1.7136499999999999</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3">
         <v>0.68718000000000001</v>
       </c>
@@ -13012,14 +12994,12 @@
         <v>41851</v>
       </c>
       <c r="B78" s="3">
-        <v>0.57831999999999995</v>
+        <v>-8.7558326128322997E-2</v>
       </c>
       <c r="C78" s="3">
-        <v>-8.7558326128322997E-2</v>
-      </c>
-      <c r="D78" s="3">
-        <v>2.0360783819180099</v>
-      </c>
+        <v>-0.16650999999999999</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3">
         <v>0.43681999999999999</v>
       </c>
@@ -13059,14 +13039,12 @@
         <v>41820</v>
       </c>
       <c r="B79" s="3">
-        <v>0.20949000000000001</v>
+        <v>0.54263235690275002</v>
       </c>
       <c r="C79" s="3">
-        <v>0.54263235690275002</v>
-      </c>
-      <c r="D79" s="3">
-        <v>-1.43646221715705</v>
-      </c>
+        <v>0.47900999999999999</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3">
         <v>0.46083000000000002</v>
       </c>
@@ -13106,14 +13084,12 @@
         <v>41790</v>
       </c>
       <c r="B80" s="3">
-        <v>1.1906399999999999</v>
+        <v>1.8156228097989799</v>
       </c>
       <c r="C80" s="3">
-        <v>1.8156228097989799</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.68391629094719497</v>
-      </c>
+        <v>1.7595099999999999</v>
+      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="3">
         <v>0.83187</v>
       </c>
@@ -13153,14 +13129,12 @@
         <v>41759</v>
       </c>
       <c r="B81" s="3">
-        <v>0.45873999999999998</v>
+        <v>1.13671230556104</v>
       </c>
       <c r="C81" s="3">
-        <v>1.13671230556104</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0.49616368878822897</v>
-      </c>
+        <v>1.07307</v>
+      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="3">
         <v>-0.27128999999999998</v>
       </c>
@@ -13200,14 +13174,12 @@
         <v>41729</v>
       </c>
       <c r="B82" s="3">
-        <v>-0.24135000000000001</v>
+        <v>0.15993718981066599</v>
       </c>
       <c r="C82" s="3">
-        <v>0.15993718981066599</v>
-      </c>
-      <c r="D82" s="3">
-        <v>-0.20231417408194799</v>
-      </c>
+        <v>8.702E-2</v>
+      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3">
         <v>-0.28527000000000002</v>
       </c>
@@ -13247,14 +13219,12 @@
         <v>41698</v>
       </c>
       <c r="B83" s="3">
-        <v>0.31558000000000003</v>
+        <v>1.1934494847158601</v>
       </c>
       <c r="C83" s="3">
-        <v>1.1934494847158601</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0.41046699224180799</v>
-      </c>
+        <v>1.1361399999999999</v>
+      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="3">
         <v>1.2469600000000001</v>
       </c>
@@ -13294,14 +13264,12 @@
         <v>41670</v>
       </c>
       <c r="B84" s="3">
-        <v>2.6111300000000002</v>
+        <v>1.9420270660691801</v>
       </c>
       <c r="C84" s="3">
-        <v>1.9420270660691801</v>
-      </c>
-      <c r="D84" s="3">
-        <v>6.80225152894117</v>
-      </c>
+        <v>1.7780100000000001</v>
+      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="3">
         <v>3.0234000000000001</v>
       </c>
@@ -13341,14 +13309,12 @@
         <v>41639</v>
       </c>
       <c r="B85" s="3">
-        <v>-0.44074000000000002</v>
+        <v>-0.608985838489428</v>
       </c>
       <c r="C85" s="3">
-        <v>-0.608985838489428</v>
-      </c>
-      <c r="D85" s="3">
-        <v>-0.32750425049589099</v>
-      </c>
+        <v>-0.68398000000000003</v>
+      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="3">
         <v>1.24238</v>
       </c>
@@ -13388,14 +13354,12 @@
         <v>41608</v>
       </c>
       <c r="B86" s="3">
-        <v>-0.27781</v>
+        <v>-0.14755226577283201</v>
       </c>
       <c r="C86" s="3">
-        <v>-0.14755226577283201</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1.29464143261253</v>
-      </c>
+        <v>-0.22186</v>
+      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="3">
         <v>1.5839700000000001</v>
       </c>
@@ -13435,14 +13399,12 @@
         <v>41578</v>
       </c>
       <c r="B87" s="3">
-        <v>1.0486500000000001</v>
+        <v>1.5972298210612901</v>
       </c>
       <c r="C87" s="3">
-        <v>1.5972298210612901</v>
-      </c>
-      <c r="D87" s="3">
-        <v>2.9757814159937599</v>
-      </c>
+        <v>1.4995499999999999</v>
+      </c>
+      <c r="D87" s="3"/>
       <c r="E87" s="3">
         <v>1.93588</v>
       </c>
@@ -13482,14 +13444,12 @@
         <v>41547</v>
       </c>
       <c r="B88" s="3">
-        <v>0.46331</v>
+        <v>1.3393429825991201</v>
       </c>
       <c r="C88" s="3">
-        <v>1.3393429825991201</v>
-      </c>
-      <c r="D88" s="3">
-        <v>-1.2931376253673199</v>
-      </c>
+        <v>1.2996099999999999</v>
+      </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="3">
         <v>0.58984000000000003</v>
       </c>
@@ -13529,14 +13489,12 @@
         <v>41517</v>
       </c>
       <c r="B89" s="3">
-        <v>-0.65117000000000003</v>
+        <v>-0.90117364632895602</v>
       </c>
       <c r="C89" s="3">
-        <v>-0.90117364632895602</v>
-      </c>
-      <c r="D89" s="3">
-        <v>1.6317985506541499</v>
-      </c>
+        <v>-0.95499999999999996</v>
+      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="3">
         <v>-0.11001</v>
       </c>
@@ -13576,14 +13534,12 @@
         <v>41486</v>
       </c>
       <c r="B90" s="3">
-        <v>9.9760000000000001E-2</v>
+        <v>0.51527703390381596</v>
       </c>
       <c r="C90" s="3">
-        <v>0.51527703390381596</v>
-      </c>
-      <c r="D90" s="3">
-        <v>-2.1075967837338201</v>
-      </c>
+        <v>0.45385999999999999</v>
+      </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="3">
         <v>1.1672100000000001</v>
       </c>
@@ -13623,14 +13579,12 @@
         <v>41455</v>
       </c>
       <c r="B91" s="3">
-        <v>-2.0935600000000001</v>
+        <v>-3.8315841568381002</v>
       </c>
       <c r="C91" s="3">
-        <v>-3.8315841568381002</v>
-      </c>
-      <c r="D91" s="3">
-        <v>-1.83168414396979</v>
-      </c>
+        <v>-3.8230599999999999</v>
+      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="3">
         <v>-1.6658999999999999</v>
       </c>
@@ -13670,14 +13624,12 @@
         <v>41425</v>
       </c>
       <c r="B92" s="3">
-        <v>-1.4515</v>
+        <v>-2.5877972874021</v>
       </c>
       <c r="C92" s="3">
-        <v>-2.5877972874021</v>
-      </c>
-      <c r="D92" s="3">
-        <v>9.0539748968538405E-2</v>
-      </c>
+        <v>-2.5919699999999999</v>
+      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="3">
         <v>0.97821000000000002</v>
       </c>
@@ -13717,14 +13669,12 @@
         <v>41394</v>
       </c>
       <c r="B93" s="3">
-        <v>1.08779</v>
+        <v>2.1451221600493802</v>
       </c>
       <c r="C93" s="3">
-        <v>2.1451221600493802</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1.0869992952409</v>
-      </c>
+        <v>2.1020400000000001</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3">
         <v>0.99329000000000001</v>
       </c>
@@ -13761,14 +13711,12 @@
         <v>41364</v>
       </c>
       <c r="B94" s="3">
-        <v>0.41521999999999998</v>
+        <v>0.38369244829588001</v>
       </c>
       <c r="C94" s="3">
-        <v>0.38369244829588001</v>
-      </c>
-      <c r="D94" s="3">
-        <v>-0.86138437624627695</v>
-      </c>
+        <v>0.31935999999999998</v>
+      </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="3">
         <v>0.97646999999999995</v>
       </c>
@@ -13805,14 +13753,12 @@
         <v>41333</v>
       </c>
       <c r="B95" s="3">
-        <v>0.94760999999999995</v>
+        <v>0.943580029469126</v>
       </c>
       <c r="C95" s="3">
-        <v>0.943580029469126</v>
-      </c>
-      <c r="D95" s="3">
-        <v>3.8068765890774099</v>
-      </c>
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="3">
         <v>1.06471</v>
       </c>
@@ -13849,14 +13795,12 @@
         <v>41305</v>
       </c>
       <c r="B96" s="3">
-        <v>-0.74153999999999998</v>
+        <v>1.66655159370643E-2</v>
       </c>
       <c r="C96" s="3">
-        <v>1.66655159370643E-2</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0.26775707291351097</v>
-      </c>
+        <v>-4.845E-2</v>
+      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="3">
         <v>0.62573999999999996</v>
       </c>
@@ -13893,14 +13837,12 @@
         <v>41274</v>
       </c>
       <c r="B97" s="3">
-        <v>-0.14917</v>
+        <v>0.51586546099700004</v>
       </c>
       <c r="C97" s="3">
-        <v>0.51586546099700004</v>
-      </c>
-      <c r="D97" s="3">
-        <v>0.690023421754688</v>
-      </c>
+        <v>0.45238</v>
+      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="3">
         <v>1.1403399999999999</v>
       </c>
@@ -13937,14 +13879,12 @@
         <v>41243</v>
       </c>
       <c r="B98" s="3">
-        <v>0.55471999999999999</v>
+        <v>0.93956208164116495</v>
       </c>
       <c r="C98" s="3">
-        <v>0.93956208164116495</v>
-      </c>
-      <c r="D98" s="3">
-        <v>0.26219954877437601</v>
-      </c>
+        <v>0.88293999999999995</v>
+      </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="3">
         <v>1.0206299999999999</v>
       </c>
@@ -13981,14 +13921,12 @@
         <v>41213</v>
       </c>
       <c r="B99" s="3">
-        <v>-0.21912999999999999</v>
+        <v>0.94080974772876502</v>
       </c>
       <c r="C99" s="3">
-        <v>0.94080974772876502</v>
-      </c>
-      <c r="D99" s="3">
-        <v>2.4561399715432799</v>
-      </c>
+        <v>0.86214999999999997</v>
+      </c>
+      <c r="D99" s="3"/>
       <c r="E99" s="3">
         <v>1.40473</v>
       </c>
@@ -14025,14 +13963,12 @@
         <v>41182</v>
       </c>
       <c r="B100" s="3">
-        <v>0.67964000000000002</v>
+        <v>1.2432313739304299</v>
       </c>
       <c r="C100" s="3">
-        <v>1.2432313739304299</v>
-      </c>
-      <c r="D100" s="3">
-        <v>0.88755368597051598</v>
-      </c>
+        <v>1.1849000000000001</v>
+      </c>
+      <c r="D100" s="3"/>
       <c r="E100" s="3">
         <v>1.5890299999999999</v>
       </c>
@@ -14069,14 +14005,12 @@
         <v>41152</v>
       </c>
       <c r="B101" s="3">
-        <v>-0.11261</v>
+        <v>0.77324736516142201</v>
       </c>
       <c r="C101" s="3">
-        <v>0.77324736516142201</v>
-      </c>
-      <c r="D101" s="3">
-        <v>-0.83707237503740795</v>
-      </c>
+        <v>0.71540999999999999</v>
+      </c>
+      <c r="D101" s="3"/>
       <c r="E101" s="3">
         <v>1.0713999999999999</v>
       </c>
@@ -14113,14 +14047,12 @@
         <v>41121</v>
       </c>
       <c r="B102" s="3">
-        <v>0.64985999999999999</v>
+        <v>2.5606702511188102</v>
       </c>
       <c r="C102" s="3">
-        <v>2.5606702511188102</v>
-      </c>
-      <c r="D102" s="3">
-        <v>0.810713615184667</v>
-      </c>
+        <v>2.53565</v>
+      </c>
+      <c r="D102" s="3"/>
       <c r="E102" s="3">
         <v>1.6712499999999999</v>
       </c>
@@ -14157,14 +14089,12 @@
         <v>41090</v>
       </c>
       <c r="B103" s="3">
-        <v>-3.4779999999999998E-2</v>
+        <v>1.15143211390231</v>
       </c>
       <c r="C103" s="3">
-        <v>1.15143211390231</v>
-      </c>
-      <c r="D103" s="3">
-        <v>-0.49658176578490998</v>
-      </c>
+        <v>1.0992599999999999</v>
+      </c>
+      <c r="D103" s="3"/>
       <c r="E103" s="3">
         <v>0.79662999999999995</v>
       </c>
@@ -14201,14 +14131,12 @@
         <v>41060</v>
       </c>
       <c r="B104" s="3">
-        <v>2.0059200000000001</v>
+        <v>1.01986308867108</v>
       </c>
       <c r="C104" s="3">
-        <v>1.01986308867108</v>
-      </c>
-      <c r="D104" s="3">
-        <v>5.79744760159927</v>
-      </c>
+        <v>0.91000999999999999</v>
+      </c>
+      <c r="D104" s="3"/>
       <c r="E104" s="3">
         <v>-8.5120000000000001E-2</v>
       </c>
@@ -14245,14 +14173,12 @@
         <v>41029</v>
       </c>
       <c r="B105" s="3">
-        <v>5.8619999999999998E-2</v>
+        <v>1.77879621355629</v>
       </c>
       <c r="C105" s="3">
-        <v>1.77879621355629</v>
-      </c>
-      <c r="D105" s="3">
-        <v>0.56911878683274597</v>
-      </c>
+        <v>1.73977</v>
+      </c>
+      <c r="D105" s="3"/>
       <c r="E105" s="3">
         <v>0.79090000000000005</v>
       </c>
@@ -14289,14 +14215,12 @@
         <v>40999</v>
       </c>
       <c r="B106" s="3">
-        <v>-0.32601999999999998</v>
+        <v>-0.13928963914786499</v>
       </c>
       <c r="C106" s="3">
-        <v>-0.13928963914786499</v>
-      </c>
-      <c r="D106" s="3">
-        <v>1.26180416772425</v>
-      </c>
+        <v>-0.20730000000000001</v>
+      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="3">
         <v>1.24017</v>
       </c>
@@ -14333,14 +14257,12 @@
         <v>40968</v>
       </c>
       <c r="B107" s="3">
-        <v>-0.40344999999999998</v>
+        <v>0.67262269543810704</v>
       </c>
       <c r="C107" s="3">
-        <v>0.67262269543810704</v>
-      </c>
-      <c r="D107" s="3">
-        <v>-1.1790830552924201</v>
-      </c>
+        <v>0.61684000000000005</v>
+      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="3">
         <v>1.77183</v>
       </c>
@@ -14377,14 +14299,12 @@
         <v>40939</v>
       </c>
       <c r="B108" s="3">
-        <v>0.45829999999999999</v>
+        <v>3.07277265902108</v>
       </c>
       <c r="C108" s="3">
-        <v>3.07277265902108</v>
-      </c>
-      <c r="D108" s="3">
-        <v>1.4926352693346201</v>
-      </c>
+        <v>3.05118</v>
+      </c>
+      <c r="D108" s="3"/>
       <c r="E108" s="3">
         <v>2.6936800000000001</v>
       </c>
@@ -14421,14 +14341,12 @@
         <v>40908</v>
       </c>
       <c r="B109" s="3">
-        <v>1.6877599999999999</v>
+        <v>1.87289754135999</v>
       </c>
       <c r="C109" s="3">
-        <v>1.87289754135999</v>
-      </c>
-      <c r="D109" s="3">
-        <v>1.9417119301696599</v>
-      </c>
+        <v>1.7915399999999999</v>
+      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="3">
         <v>1.6431199999999999</v>
       </c>
@@ -14465,14 +14383,12 @@
         <v>40877</v>
       </c>
       <c r="B110" s="3">
-        <v>0.73219000000000001</v>
+        <v>-1.47704135620189</v>
       </c>
       <c r="C110" s="3">
-        <v>-1.47704135620189</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0.819486639818791</v>
-      </c>
+        <v>-1.51074</v>
+      </c>
+      <c r="D110" s="3"/>
       <c r="E110" s="3">
         <v>-1.0042599999999999</v>
       </c>
@@ -14509,14 +14425,12 @@
         <v>40847</v>
       </c>
       <c r="B111" s="3">
-        <v>-0.42934</v>
+        <v>2.4226068909635399</v>
       </c>
       <c r="C111" s="3">
-        <v>2.4226068909635399</v>
-      </c>
-      <c r="D111" s="3">
-        <v>-2.3362977208387199</v>
-      </c>
+        <v>2.4620799999999998</v>
+      </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="3">
         <v>9.9110000000000004E-2</v>
       </c>
@@ -14550,14 +14464,12 @@
         <v>40816</v>
       </c>
       <c r="B112" s="3">
-        <v>1.8114600000000001</v>
+        <v>-1.09003333909427</v>
       </c>
       <c r="C112" s="3">
-        <v>-1.09003333909427</v>
-      </c>
-      <c r="D112" s="3">
-        <v>5.40072799815922</v>
-      </c>
+        <v>-1.09294</v>
+      </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="3">
         <v>-1.94659</v>
       </c>
@@ -14591,14 +14503,12 @@
         <v>40786</v>
       </c>
       <c r="B113" s="3">
-        <v>0.95269000000000004</v>
+        <v>-1.1267505211780899</v>
       </c>
       <c r="C113" s="3">
-        <v>-1.1267505211780899</v>
-      </c>
-      <c r="D113" s="3">
-        <v>1.2911479688728</v>
-      </c>
+        <v>-1.1638299999999999</v>
+      </c>
+      <c r="D113" s="3"/>
       <c r="E113" s="3">
         <v>-1.3769100000000001</v>
       </c>
@@ -14632,14 +14542,12 @@
         <v>40755</v>
       </c>
       <c r="B114" s="3">
-        <v>2.0308700000000002</v>
+        <v>1.96922885881214</v>
       </c>
       <c r="C114" s="3">
-        <v>1.96922885881214</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0.75689543052536101</v>
-      </c>
+        <v>1.9132</v>
+      </c>
+      <c r="D114" s="3"/>
       <c r="E114" s="3">
         <v>1.6912100000000001</v>
       </c>
@@ -14673,14 +14581,12 @@
         <v>40724</v>
       </c>
       <c r="B115" s="3">
-        <v>6.9019999999999998E-2</v>
+        <v>-0.98266401310628204</v>
       </c>
       <c r="C115" s="3">
-        <v>-0.98266401310628204</v>
-      </c>
-      <c r="D115" s="3">
-        <v>-1.4522678278371299</v>
-      </c>
+        <v>-1.06935</v>
+      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="3">
         <v>-0.48426000000000002</v>
       </c>
@@ -14714,14 +14620,12 @@
         <v>40694</v>
       </c>
       <c r="B116" s="3">
-        <v>1.5295000000000001</v>
+        <v>1.15223367361652</v>
       </c>
       <c r="C116" s="3">
-        <v>1.15223367361652</v>
-      </c>
-      <c r="D116" s="3">
-        <v>3.1904740933761899</v>
-      </c>
+        <v>1.0603100000000001</v>
+      </c>
+      <c r="D116" s="3"/>
       <c r="E116" s="3">
         <v>1.33118</v>
       </c>
@@ -14755,14 +14659,12 @@
         <v>40663</v>
       </c>
       <c r="B117" s="3">
-        <v>0.81106999999999996</v>
+        <v>2.0523857971371502</v>
       </c>
       <c r="C117" s="3">
-        <v>2.0523857971371502</v>
-      </c>
-      <c r="D117" s="3">
-        <v>-0.47037071498328897</v>
-      </c>
+        <v>2.0366200000000001</v>
+      </c>
+      <c r="D117" s="3"/>
       <c r="E117" s="3">
         <v>1.0946</v>
       </c>
@@ -14796,14 +14698,12 @@
         <v>40633</v>
       </c>
       <c r="B118" s="3">
-        <v>-0.12665000000000001</v>
+        <v>0.49037849660997701</v>
       </c>
       <c r="C118" s="3">
-        <v>0.49037849660997701</v>
-      </c>
-      <c r="D118" s="3">
-        <v>0.24205968139140999</v>
-      </c>
+        <v>0.42754999999999999</v>
+      </c>
+      <c r="D118" s="3"/>
       <c r="E118" s="3">
         <v>1.2330399999999999</v>
       </c>
@@ -14837,14 +14737,12 @@
         <v>40602</v>
       </c>
       <c r="B119" s="3">
-        <v>0.17261000000000001</v>
+        <v>1.0051596050740501</v>
       </c>
       <c r="C119" s="3">
-        <v>1.0051596050740501</v>
-      </c>
-      <c r="D119" s="3">
-        <v>-1.6211918785303601</v>
-      </c>
+        <v>0.97316999999999998</v>
+      </c>
+      <c r="D119" s="3"/>
       <c r="E119" s="3">
         <v>0.15409</v>
       </c>
@@ -14878,14 +14776,12 @@
         <v>40574</v>
       </c>
       <c r="B120" s="3">
-        <v>-0.46046999999999999</v>
+        <v>0.76040404073740497</v>
       </c>
       <c r="C120" s="3">
-        <v>0.76040404073740497</v>
-      </c>
-      <c r="D120" s="3">
-        <v>1.36122689327227</v>
-      </c>
+        <v>0.69240999999999997</v>
+      </c>
+      <c r="D120" s="3"/>
       <c r="E120" s="3">
         <v>2.8840000000000001E-2</v>
       </c>
@@ -14919,14 +14815,12 @@
         <v>40543</v>
       </c>
       <c r="B121" s="3">
-        <v>0.11071</v>
+        <v>-0.29552803975512099</v>
       </c>
       <c r="C121" s="3">
-        <v>-0.29552803975512099</v>
-      </c>
-      <c r="D121" s="3">
-        <v>-3.6155243296660302</v>
-      </c>
+        <v>-0.37086000000000002</v>
+      </c>
+      <c r="D121" s="3"/>
       <c r="E121" s="3">
         <v>0.93006</v>
       </c>
@@ -14960,14 +14854,12 @@
         <v>40512</v>
       </c>
       <c r="B122" s="3">
-        <v>-1.17686</v>
+        <v>-1.89264650707093</v>
       </c>
       <c r="C122" s="3">
-        <v>-1.89264650707093</v>
-      </c>
-      <c r="D122" s="3">
-        <v>-1.0259046629324</v>
-      </c>
+        <v>-1.9413499999999999</v>
+      </c>
+      <c r="D122" s="3"/>
       <c r="E122" s="3">
         <v>-0.92847000000000002</v>
       </c>
@@ -15001,14 +14893,12 @@
         <v>40482</v>
       </c>
       <c r="B123" s="3">
-        <v>0.26117000000000001</v>
+        <v>1.22625869260901</v>
       </c>
       <c r="C123" s="3">
-        <v>1.22625869260901</v>
-      </c>
-      <c r="D123" s="3">
-        <v>0.353780657990938</v>
-      </c>
+        <v>1.1673800000000001</v>
+      </c>
+      <c r="D123" s="3"/>
       <c r="E123" s="3">
         <v>0.39184999999999998</v>
       </c>
@@ -15042,14 +14932,12 @@
         <v>40451</v>
       </c>
       <c r="B124" s="3">
-        <v>0.69127000000000005</v>
+        <v>1.5071427487767199</v>
       </c>
       <c r="C124" s="3">
-        <v>1.5071427487767199</v>
-      </c>
-      <c r="D124" s="3">
-        <v>-2.3377524124349298</v>
-      </c>
+        <v>1.5179</v>
+      </c>
+      <c r="D124" s="3"/>
       <c r="E124" s="3">
         <v>1.7200299999999999</v>
       </c>
@@ -15083,14 +14971,12 @@
         <v>40421</v>
       </c>
       <c r="B125" s="3">
-        <v>1.9886699999999999</v>
+        <v>2.6315019493279501</v>
       </c>
       <c r="C125" s="3">
-        <v>2.6315019493279501</v>
-      </c>
-      <c r="D125" s="3">
-        <v>6.1297533375406603</v>
-      </c>
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="D125" s="3"/>
       <c r="E125" s="3">
         <v>1.7317499999999999</v>
       </c>
@@ -15124,14 +15010,12 @@
         <v>40390</v>
       </c>
       <c r="B126" s="3">
-        <v>0.50117</v>
+        <v>2.4369489683249101</v>
       </c>
       <c r="C126" s="3">
-        <v>2.4369489683249101</v>
-      </c>
-      <c r="D126" s="3">
-        <v>-0.65911508351763304</v>
-      </c>
+        <v>2.4948700000000001</v>
+      </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="3">
         <v>0.60648000000000002</v>
       </c>
@@ -15165,14 +15049,12 @@
         <v>40359</v>
       </c>
       <c r="B127" s="3">
-        <v>1.85914</v>
+        <v>1.8131969125457701</v>
       </c>
       <c r="C127" s="3">
-        <v>1.8131969125457701</v>
-      </c>
-      <c r="D127" s="3">
-        <v>3.0730195554391</v>
-      </c>
+        <v>1.7829699999999999</v>
+      </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="3">
         <v>2.4207200000000002</v>
       </c>
@@ -15206,14 +15088,12 @@
         <v>40329</v>
       </c>
       <c r="B128" s="3">
-        <v>0.97470000000000001</v>
+        <v>-1.58456630297428</v>
       </c>
       <c r="C128" s="3">
-        <v>-1.58456630297428</v>
-      </c>
-      <c r="D128" s="3">
-        <v>2.02801507182701</v>
-      </c>
+        <v>-1.5208699999999999</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3">
         <v>0.16747999999999999</v>
       </c>
@@ -15247,14 +15127,12 @@
         <v>40298</v>
       </c>
       <c r="B129" s="3">
-        <v>-0.18089</v>
+        <v>1.7293512392535499</v>
       </c>
       <c r="C129" s="3">
-        <v>1.7293512392535499</v>
-      </c>
-      <c r="D129" s="3">
-        <v>1.5607970932925901</v>
-      </c>
+        <v>1.73126</v>
+      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="3">
         <v>0.56757000000000002</v>
       </c>
@@ -15288,14 +15166,12 @@
         <v>40268</v>
       </c>
       <c r="B130" s="3">
-        <v>-0.8548</v>
+        <v>1.1283413882134701</v>
       </c>
       <c r="C130" s="3">
-        <v>1.1283413882134701</v>
-      </c>
-      <c r="D130" s="3">
-        <v>-2.8879017645110898</v>
-      </c>
+        <v>1.1706000000000001</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="3">
         <v>1.87391</v>
       </c>
@@ -15329,14 +15205,12 @@
         <v>40237</v>
       </c>
       <c r="B131" s="3">
-        <v>9.8229999999999998E-2</v>
+        <v>0.36778814790334702</v>
       </c>
       <c r="C131" s="3">
-        <v>0.36778814790334702</v>
-      </c>
-      <c r="D131" s="3">
-        <v>-0.43934734068511699</v>
-      </c>
+        <v>0.36603000000000002</v>
+      </c>
+      <c r="D131" s="3"/>
       <c r="E131" s="3">
         <v>-0.60077999999999998</v>
       </c>
@@ -15370,14 +15244,12 @@
         <v>40209</v>
       </c>
       <c r="B132" s="3">
-        <v>1.8339300000000001</v>
+        <v>2.1285431782552102</v>
       </c>
       <c r="C132" s="3">
-        <v>2.1285431782552102</v>
-      </c>
-      <c r="D132" s="3">
-        <v>3.7673309104783601</v>
-      </c>
+        <v>2.0971199999999999</v>
+      </c>
+      <c r="D132" s="3"/>
       <c r="E132" s="3">
         <v>2.6628799999999999</v>
       </c>
@@ -15411,14 +15283,12 @@
         <v>40178</v>
       </c>
       <c r="B133" s="3">
-        <v>-1.4938</v>
+        <v>-0.236348867095381</v>
       </c>
       <c r="C133" s="3">
-        <v>-0.236348867095381</v>
-      </c>
-      <c r="D133" s="3">
-        <v>-0.79699375053355903</v>
-      </c>
+        <v>-0.23869000000000001</v>
+      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="3">
         <v>0.50505999999999995</v>
       </c>
@@ -15449,14 +15319,12 @@
         <v>40147</v>
       </c>
       <c r="B134" s="3">
-        <v>1.3505</v>
+        <v>1.6877589056523301</v>
       </c>
       <c r="C134" s="3">
-        <v>1.6877589056523301</v>
-      </c>
-      <c r="D134" s="3">
-        <v>-0.441805337913109</v>
-      </c>
+        <v>1.7254799999999999</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="3">
         <v>1.7156899999999999</v>
       </c>
@@ -15487,14 +15355,12 @@
         <v>40117</v>
       </c>
       <c r="B135" s="3">
-        <v>-0.14602000000000001</v>
+        <v>0.96422126993189705</v>
       </c>
       <c r="C135" s="3">
-        <v>0.96422126993189705</v>
-      </c>
-      <c r="D135" s="3">
-        <v>1.33223310537594</v>
-      </c>
+        <v>0.96536</v>
+      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="3">
         <v>-0.32278000000000001</v>
       </c>
@@ -15522,14 +15388,12 @@
         <v>40086</v>
       </c>
       <c r="B136" s="3">
-        <v>0.85665999999999998</v>
+        <v>2.5368246991268601</v>
       </c>
       <c r="C136" s="3">
-        <v>2.5368246991268601</v>
-      </c>
-      <c r="D136" s="3">
-        <v>0.26774952333256802</v>
-      </c>
+        <v>2.5985800000000001</v>
+      </c>
+      <c r="D136" s="3"/>
       <c r="E136" s="3">
         <v>3.5413199999999998</v>
       </c>
@@ -15557,14 +15421,12 @@
         <v>40056</v>
       </c>
       <c r="B137" s="3">
-        <v>1.1089199999999999</v>
+        <v>1.66961476937044</v>
       </c>
       <c r="C137" s="3">
-        <v>1.66961476937044</v>
-      </c>
-      <c r="D137" s="3">
-        <v>3.2671035126260302</v>
-      </c>
+        <v>1.6545099999999999</v>
+      </c>
+      <c r="D137" s="3"/>
       <c r="F137" s="3">
         <v>3.03548828875368</v>
       </c>
@@ -15589,14 +15451,12 @@
         <v>40025</v>
       </c>
       <c r="B138" s="3">
-        <v>0.58518000000000003</v>
+        <v>4.2251679145161702</v>
       </c>
       <c r="C138" s="3">
-        <v>4.2251679145161702</v>
-      </c>
-      <c r="D138" s="3">
-        <v>-2.6668266836009802</v>
-      </c>
+        <v>4.5582099999999999</v>
+      </c>
+      <c r="D138" s="3"/>
       <c r="F138" s="3">
         <v>3.2689730669573001</v>
       </c>
@@ -15621,14 +15481,12 @@
         <v>39994</v>
       </c>
       <c r="B139" s="3">
-        <v>1.18486</v>
+        <v>2.1498181974189698</v>
       </c>
       <c r="C139" s="3">
-        <v>2.1498181974189698</v>
-      </c>
-      <c r="D139" s="3">
-        <v>8.1518262611790302</v>
-      </c>
+        <v>2.0474199999999998</v>
+      </c>
+      <c r="D139" s="3"/>
       <c r="F139" s="3">
         <v>1.6259582143001601</v>
       </c>
@@ -15653,14 +15511,12 @@
         <v>39964</v>
       </c>
       <c r="B140" s="3">
-        <v>-0.43673000000000001</v>
+        <v>3.4342224620238699</v>
       </c>
       <c r="C140" s="3">
-        <v>3.4342224620238699</v>
-      </c>
-      <c r="D140" s="3">
-        <v>-4.3210360188536301</v>
-      </c>
+        <v>3.73807</v>
+      </c>
+      <c r="D140" s="3"/>
       <c r="F140" s="3">
         <v>3.15829739420623</v>
       </c>
@@ -15685,14 +15541,12 @@
         <v>39933</v>
       </c>
       <c r="B141" s="3">
-        <v>-0.16242000000000001</v>
+        <v>2.8893521025635098</v>
       </c>
       <c r="C141" s="3">
-        <v>2.8893521025635098</v>
-      </c>
-      <c r="D141" s="3">
-        <v>-2.6711671811787099</v>
-      </c>
+        <v>3.06731</v>
+      </c>
+      <c r="D141" s="3"/>
       <c r="F141" s="3">
         <v>2.1917630047586698</v>
       </c>
@@ -15717,14 +15571,12 @@
         <v>39903</v>
       </c>
       <c r="B142" s="3">
-        <v>1.75213</v>
+        <v>1.08671802205093</v>
       </c>
       <c r="C142" s="3">
-        <v>1.08671802205093</v>
-      </c>
-      <c r="D142" s="3">
-        <v>0.24029139654017201</v>
-      </c>
+        <v>1.0927899999999999</v>
+      </c>
+      <c r="D142" s="3"/>
       <c r="F142" s="3">
         <v>1.27621167304161</v>
       </c>
@@ -15749,14 +15601,12 @@
         <v>39872</v>
       </c>
       <c r="B143" s="3">
-        <v>0.67444999999999999</v>
+        <v>-3.3161855688375401</v>
       </c>
       <c r="C143" s="3">
-        <v>-3.3161855688375401</v>
-      </c>
-      <c r="D143" s="3">
-        <v>-1.01591493769404</v>
-      </c>
+        <v>-3.2782300000000002</v>
+      </c>
+      <c r="D143" s="3"/>
       <c r="F143" s="3">
         <v>-4.0077782352507398</v>
       </c>
@@ -15781,14 +15631,12 @@
         <v>39844</v>
       </c>
       <c r="B144" s="3">
-        <v>-1.05366</v>
+        <v>-0.58523942693703401</v>
       </c>
       <c r="C144" s="3">
-        <v>-0.58523942693703401</v>
-      </c>
-      <c r="D144" s="3">
-        <v>-0.20370518469016399</v>
-      </c>
+        <v>-0.63432999999999995</v>
+      </c>
+      <c r="D144" s="3"/>
       <c r="F144" s="3">
         <v>0.26421759189281202</v>
       </c>
@@ -15813,14 +15661,12 @@
         <v>39813</v>
       </c>
       <c r="B145" s="3">
-        <v>3.1179800000000002</v>
+        <v>7.1432577748295998</v>
       </c>
       <c r="C145" s="3">
-        <v>7.1432577748295998</v>
-      </c>
-      <c r="D145" s="3">
-        <v>6.5978019094424498</v>
-      </c>
+        <v>7.1763399999999997</v>
+      </c>
+      <c r="D145" s="3"/>
       <c r="F145" s="3">
         <v>3.1194258912406698</v>
       </c>
@@ -15845,14 +15691,12 @@
         <v>39782</v>
       </c>
       <c r="B146" s="3">
-        <v>2.4908299999999999</v>
+        <v>3.1560455642146401</v>
       </c>
       <c r="C146" s="3">
-        <v>3.1560455642146401</v>
-      </c>
-      <c r="D146" s="3">
-        <v>5.2015027083933001</v>
-      </c>
+        <v>3.0528900000000001</v>
+      </c>
+      <c r="D146" s="3"/>
       <c r="F146" s="3">
         <v>-0.20583895176990899</v>
       </c>
@@ -15871,14 +15715,12 @@
         <v>39752</v>
       </c>
       <c r="B147" s="3">
-        <v>-0.40167999999999998</v>
+        <v>-3.29353864548058</v>
       </c>
       <c r="C147" s="3">
-        <v>-3.29353864548058</v>
-      </c>
-      <c r="D147" s="3">
-        <v>11.2352369756395</v>
-      </c>
+        <v>-2.7303500000000001</v>
+      </c>
+      <c r="D147" s="3"/>
       <c r="F147" s="3">
         <v>-5.1363131544910896</v>
       </c>
@@ -15897,14 +15739,12 @@
         <v>39721</v>
       </c>
       <c r="B148" s="3">
-        <v>-1.7653700000000001</v>
+        <v>-6.2042390877825397</v>
       </c>
       <c r="C148" s="3">
-        <v>-6.2042390877825397</v>
-      </c>
-      <c r="D148" s="3">
-        <v>-5.9315529933480997</v>
-      </c>
+        <v>-6.2279499999999999</v>
+      </c>
+      <c r="D148" s="3"/>
       <c r="F148" s="3">
         <v>-1.6660837373397801</v>
       </c>
@@ -15923,14 +15763,12 @@
         <v>39691</v>
       </c>
       <c r="B149" s="3">
-        <v>0.76248000000000005</v>
+        <v>0.74972776498312099</v>
       </c>
       <c r="C149" s="3">
-        <v>0.74972776498312099</v>
-      </c>
-      <c r="D149" s="3">
-        <v>4.0513821910194503</v>
-      </c>
+        <v>0.68396000000000001</v>
+      </c>
+      <c r="D149" s="3"/>
       <c r="F149" s="3">
         <v>-7.7196261832357393E-2</v>
       </c>
@@ -15949,14 +15787,12 @@
         <v>39660</v>
       </c>
       <c r="B150" s="3">
-        <v>0.82425999999999999</v>
+        <v>0.333933866412294</v>
       </c>
       <c r="C150" s="3">
-        <v>0.333933866412294</v>
-      </c>
-      <c r="D150" s="3">
-        <v>1.3747810280419701</v>
-      </c>
+        <v>0.28743999999999997</v>
+      </c>
+      <c r="D150" s="3"/>
       <c r="F150" s="3">
         <v>-0.59906877706770101</v>
       </c>
@@ -15975,14 +15811,12 @@
         <v>39629</v>
       </c>
       <c r="B151" s="3">
-        <v>-9.7400000000000004E-3</v>
+        <v>-0.99005283320745496</v>
       </c>
       <c r="C151" s="3">
-        <v>-0.99005283320745496</v>
-      </c>
-      <c r="D151" s="3">
-        <v>1.0619116478816399</v>
-      </c>
+        <v>-1.01501</v>
+      </c>
+      <c r="D151" s="3"/>
       <c r="F151" s="3">
         <v>-1.5445469660864</v>
       </c>
@@ -16001,14 +15835,12 @@
         <v>39599</v>
       </c>
       <c r="B152" s="3">
-        <v>-0.23946000000000001</v>
+        <v>-1.1571235777973401</v>
       </c>
       <c r="C152" s="3">
-        <v>-1.1571235777973401</v>
-      </c>
-      <c r="D152" s="3">
-        <v>-2.51549419521398</v>
-      </c>
+        <v>-1.20092</v>
+      </c>
+      <c r="D152" s="3"/>
       <c r="F152" s="3">
         <v>-1.1874449030065899</v>
       </c>
@@ -16027,14 +15859,12 @@
         <v>39568</v>
       </c>
       <c r="B153" s="3">
-        <v>-0.64876999999999996</v>
+        <v>1.16579529642946</v>
       </c>
       <c r="C153" s="3">
-        <v>1.16579529642946</v>
-      </c>
-      <c r="D153" s="3">
-        <v>-0.74252863505674305</v>
-      </c>
+        <v>1.12514</v>
+      </c>
+      <c r="D153" s="3"/>
       <c r="F153" s="3">
         <v>1.21778078365788</v>
       </c>
@@ -16053,14 +15883,12 @@
         <v>39538</v>
       </c>
       <c r="B154" s="3">
-        <v>1.0966499999999999</v>
+        <v>-1.11217443290542</v>
       </c>
       <c r="C154" s="3">
-        <v>-1.11217443290542</v>
-      </c>
-      <c r="D154" s="3">
-        <v>3.5968657938533601</v>
-      </c>
+        <v>-1.1132299999999999</v>
+      </c>
+      <c r="D154" s="3"/>
       <c r="F154" s="3">
         <v>-0.39728487374015498</v>
       </c>
@@ -16079,14 +15907,12 @@
         <v>39507</v>
       </c>
       <c r="B155" s="3">
-        <v>1.31551</v>
+        <v>0.14172729390571301</v>
       </c>
       <c r="C155" s="3">
-        <v>0.14172729390571301</v>
-      </c>
-      <c r="D155" s="3">
-        <v>-2.7951814322555002</v>
-      </c>
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="D155" s="3"/>
       <c r="F155" s="3">
         <v>-1.18909209352391</v>
       </c>
@@ -16105,14 +15931,12 @@
         <v>39478</v>
       </c>
       <c r="B156" s="3">
-        <v>0.63600000000000001</v>
+        <v>2.12603140775833</v>
       </c>
       <c r="C156" s="3">
-        <v>2.12603140775833</v>
-      </c>
-      <c r="D156" s="3">
-        <v>4.3196119053650204</v>
-      </c>
+        <v>2.1208499999999999</v>
+      </c>
+      <c r="D156" s="3"/>
       <c r="F156" s="3">
         <v>1.5496848352060699</v>
       </c>
@@ -16131,14 +15955,12 @@
         <v>39447</v>
       </c>
       <c r="B157" s="3">
-        <v>0.51680999999999999</v>
+        <v>0.35644980252689201</v>
       </c>
       <c r="C157" s="3">
-        <v>0.35644980252689201</v>
-      </c>
-      <c r="D157" s="3">
-        <v>-0.86903784263705497</v>
-      </c>
+        <v>0.40155000000000002</v>
+      </c>
+      <c r="D157" s="3"/>
       <c r="F157" s="3">
         <v>0.49813391581396899</v>
       </c>
@@ -16154,14 +15976,12 @@
         <v>39416</v>
       </c>
       <c r="B158" s="3">
-        <v>1.54095</v>
+        <v>1.6526272267775199</v>
       </c>
       <c r="C158" s="3">
-        <v>1.6526272267775199</v>
-      </c>
-      <c r="D158" s="3">
-        <v>6.9032207580543297</v>
-      </c>
+        <v>1.57731</v>
+      </c>
+      <c r="D158" s="3"/>
       <c r="F158" s="3">
         <v>1.6487120450819199</v>
       </c>
@@ -16177,14 +15997,12 @@
         <v>39386</v>
       </c>
       <c r="B159" s="3">
-        <v>0.56782999999999995</v>
+        <v>1.01479795351477</v>
       </c>
       <c r="C159" s="3">
-        <v>1.01479795351477</v>
-      </c>
-      <c r="D159" s="3">
-        <v>-3.3718097755862</v>
-      </c>
+        <v>1.0943700000000001</v>
+      </c>
+      <c r="D159" s="3"/>
       <c r="F159" s="3">
         <v>0.61078043472391197</v>
       </c>
@@ -16200,14 +16018,12 @@
         <v>39355</v>
       </c>
       <c r="B160" s="3">
-        <v>0.72374000000000005</v>
+        <v>1.60751886522256</v>
       </c>
       <c r="C160" s="3">
-        <v>1.60751886522256</v>
-      </c>
-      <c r="D160" s="3">
-        <v>-4.3942616618613002</v>
-      </c>
+        <v>1.77773</v>
+      </c>
+      <c r="D160" s="3"/>
       <c r="F160" s="3">
         <v>1.3392896143584201</v>
       </c>
@@ -16223,14 +16039,12 @@
         <v>39325</v>
       </c>
       <c r="B161" s="3">
-        <v>0.70509999999999995</v>
+        <v>1.2760682681773801</v>
       </c>
       <c r="C161" s="3">
-        <v>1.2760682681773801</v>
-      </c>
-      <c r="D161" s="3">
-        <v>0.42754827300397802</v>
-      </c>
+        <v>1.36741</v>
+      </c>
+      <c r="D161" s="3"/>
       <c r="F161" s="3">
         <v>2.0360580254113501</v>
       </c>
@@ -16246,14 +16060,12 @@
         <v>39294</v>
       </c>
       <c r="B162" s="3">
-        <v>0.24721000000000001</v>
+        <v>0.149074812064586</v>
       </c>
       <c r="C162" s="3">
-        <v>0.149074812064586</v>
-      </c>
-      <c r="D162" s="3">
-        <v>0.59936486486486695</v>
-      </c>
+        <v>0.2225</v>
+      </c>
+      <c r="D162" s="3"/>
       <c r="F162" s="3">
         <v>-1.02519710660876</v>
       </c>
@@ -16269,14 +16081,12 @@
         <v>39263</v>
       </c>
       <c r="B163" s="3">
-        <v>-0.32412999999999997</v>
+        <v>-0.85202020940388001</v>
       </c>
       <c r="C163" s="3">
-        <v>-0.85202020940388001</v>
-      </c>
-      <c r="D163" s="3">
-        <v>-1.2570555139837101</v>
-      </c>
+        <v>-0.76044</v>
+      </c>
+      <c r="D163" s="3"/>
       <c r="F163" s="3">
         <v>-1.02536272378173</v>
       </c>
@@ -16292,14 +16102,12 @@
         <v>39233</v>
       </c>
       <c r="B164" s="3">
-        <v>-1.4529799999999999</v>
+        <v>-1.5659728531805801</v>
       </c>
       <c r="C164" s="3">
-        <v>-1.5659728531805801</v>
-      </c>
-      <c r="D164" s="3">
-        <v>-4.7356879681491302</v>
-      </c>
+        <v>-1.52338</v>
+      </c>
+      <c r="D164" s="3"/>
       <c r="F164" s="3">
         <v>-0.98447571884160401</v>
       </c>
@@ -16315,14 +16123,12 @@
         <v>39202</v>
       </c>
       <c r="B165" s="3">
-        <v>6.4990000000000006E-2</v>
+        <v>0.60493694226657602</v>
       </c>
       <c r="C165" s="3">
-        <v>0.60493694226657602</v>
-      </c>
-      <c r="D165" s="3">
-        <v>-3.5115295050491899</v>
-      </c>
+        <v>0.72291000000000005</v>
+      </c>
+      <c r="D165" s="3"/>
       <c r="F165" s="3">
         <v>1.24564404715463</v>
       </c>
@@ -16338,14 +16144,12 @@
         <v>39172</v>
       </c>
       <c r="B166" s="3">
-        <v>-0.30563000000000001</v>
+        <v>-0.30424632884731201</v>
       </c>
       <c r="C166" s="3">
-        <v>-0.30424632884731201</v>
-      </c>
-      <c r="D166" s="3">
-        <v>-1.82233360752205</v>
-      </c>
+        <v>-0.21390999999999999</v>
+      </c>
+      <c r="D166" s="3"/>
       <c r="K166" s="3">
         <v>0.29048000000000002</v>
       </c>
@@ -16355,14 +16159,12 @@
         <v>39141</v>
       </c>
       <c r="B167" s="3">
-        <v>1.2286300000000001</v>
+        <v>2.0380394308601799</v>
       </c>
       <c r="C167" s="3">
-        <v>2.0380394308601799</v>
-      </c>
-      <c r="D167" s="3">
-        <v>1.45346825991188</v>
-      </c>
+        <v>2.1326800000000001</v>
+      </c>
+      <c r="D167" s="3"/>
       <c r="K167" s="3">
         <v>-0.64870000000000005</v>
       </c>
@@ -16372,14 +16174,12 @@
         <v>39113</v>
       </c>
       <c r="B168" s="3">
-        <v>-0.20937</v>
+        <v>-0.185347283954651</v>
       </c>
       <c r="C168" s="3">
-        <v>-0.185347283954651</v>
-      </c>
-      <c r="D168" s="3">
-        <v>1.34083443842914</v>
-      </c>
+        <v>-9.2910000000000006E-2</v>
+      </c>
+      <c r="D168" s="3"/>
       <c r="K168" s="3">
         <v>2.7750300000000001</v>
       </c>
@@ -16389,14 +16189,12 @@
         <v>39082</v>
       </c>
       <c r="B169" s="3">
-        <v>-0.70548</v>
+        <v>-1.2264908033394699</v>
       </c>
       <c r="C169" s="3">
-        <v>-1.2264908033394699</v>
-      </c>
-      <c r="D169" s="3">
-        <v>0.76830874605954502</v>
-      </c>
+        <v>-1.11076</v>
+      </c>
+      <c r="D169" s="3"/>
       <c r="K169" s="3">
         <v>2.4207299999999998</v>
       </c>
@@ -16406,14 +16204,12 @@
         <v>39051</v>
       </c>
       <c r="B170" s="3">
-        <v>0.96714999999999995</v>
+        <v>1.39501886315034</v>
       </c>
       <c r="C170" s="3">
-        <v>1.39501886315034</v>
-      </c>
-      <c r="D170" s="3">
-        <v>3.4048613860502401</v>
-      </c>
+        <v>1.45357</v>
+      </c>
+      <c r="D170" s="3"/>
       <c r="K170" s="3">
         <v>2.38029</v>
       </c>
@@ -16423,14 +16219,12 @@
         <v>39021</v>
       </c>
       <c r="B171" s="3">
-        <v>0.29266999999999999</v>
+        <v>0.80531211424046401</v>
       </c>
       <c r="C171" s="3">
-        <v>0.80531211424046401</v>
-      </c>
-      <c r="D171" s="3">
-        <v>1.3234589929637299</v>
-      </c>
+        <v>0.88939000000000001</v>
+      </c>
+      <c r="D171" s="3"/>
       <c r="K171" s="3">
         <v>2.1261399999999999</v>
       </c>
@@ -16440,14 +16234,12 @@
         <v>38990</v>
       </c>
       <c r="B172" s="3">
-        <v>1.0007699999999999</v>
+        <v>0.88774272654599196</v>
       </c>
       <c r="C172" s="3">
-        <v>0.88774272654599196</v>
-      </c>
-      <c r="D172" s="3">
-        <v>1.5085374345573399</v>
-      </c>
+        <v>0.97172000000000003</v>
+      </c>
+      <c r="D172" s="3"/>
       <c r="K172" s="3">
         <v>1.2648699999999999</v>
       </c>
@@ -16457,14 +16249,12 @@
         <v>38960</v>
       </c>
       <c r="B173" s="3">
-        <v>1.58877</v>
+        <v>1.8524251014665201</v>
       </c>
       <c r="C173" s="3">
-        <v>1.8524251014665201</v>
-      </c>
-      <c r="D173" s="3">
-        <v>0.13517015483300501</v>
-      </c>
+        <v>1.9849300000000001</v>
+      </c>
+      <c r="D173" s="3"/>
       <c r="K173" s="3">
         <v>-4.6339999999999999E-2</v>
       </c>
@@ -16474,14 +16264,12 @@
         <v>38929</v>
       </c>
       <c r="B174" s="3">
-        <v>2.0166200000000001</v>
+        <v>1.5060188816834399</v>
       </c>
       <c r="C174" s="3">
-        <v>1.5060188816834399</v>
-      </c>
-      <c r="D174" s="3">
-        <v>3.2342360534124501</v>
-      </c>
+        <v>1.57646</v>
+      </c>
+      <c r="D174" s="3"/>
       <c r="K174" s="3">
         <v>3.6615000000000002</v>
       </c>
@@ -16491,14 +16279,12 @@
         <v>38898</v>
       </c>
       <c r="B175" s="3">
-        <v>-0.51598999999999995</v>
+        <v>-0.27517150898620502</v>
       </c>
       <c r="C175" s="3">
-        <v>-0.27517150898620502</v>
-      </c>
-      <c r="D175" s="3">
-        <v>0.81663532767156199</v>
-      </c>
+        <v>-0.19416</v>
+      </c>
+      <c r="D175" s="3"/>
       <c r="K175" s="3">
         <v>1.8251900000000001</v>
       </c>
@@ -16508,14 +16294,12 @@
         <v>38868</v>
       </c>
       <c r="B176" s="3">
-        <v>0.34305999999999998</v>
+        <v>-0.38635276278693398</v>
       </c>
       <c r="C176" s="3">
-        <v>-0.38635276278693398</v>
-      </c>
-      <c r="D176" s="3">
-        <v>-2.0533748315559199</v>
-      </c>
+        <v>-0.30964999999999998</v>
+      </c>
+      <c r="D176" s="3"/>
       <c r="K176" s="3">
         <v>-1.76888</v>
       </c>
@@ -16525,14 +16309,12 @@
         <v>38837</v>
       </c>
       <c r="B177" s="3">
-        <v>-0.98409999999999997</v>
+        <v>-0.31762511871007398</v>
       </c>
       <c r="C177" s="3">
-        <v>-0.31762511871007398</v>
-      </c>
-      <c r="D177" s="3">
-        <v>-4.1801231578947498</v>
-      </c>
+        <v>-0.24232000000000001</v>
+      </c>
+      <c r="D177" s="3"/>
       <c r="K177" s="3">
         <v>-1.75118</v>
       </c>
@@ -16542,14 +16324,12 @@
         <v>38807</v>
       </c>
       <c r="B178" s="3">
-        <v>-0.43613000000000002</v>
+        <v>-1.5459736266826001</v>
       </c>
       <c r="C178" s="3">
-        <v>-1.5459736266826001</v>
-      </c>
-      <c r="D178" s="3">
-        <v>1.04460869106728</v>
-      </c>
+        <v>-1.4369000000000001</v>
+      </c>
+      <c r="D178" s="3"/>
       <c r="K178" s="3">
         <v>5.5399000000000003</v>
       </c>
@@ -16559,14 +16339,12 @@
         <v>38776</v>
       </c>
       <c r="B179" s="3">
-        <v>0.54325000000000001</v>
+        <v>0.35292981768106901</v>
       </c>
       <c r="C179" s="3">
-        <v>0.35292981768106901</v>
-      </c>
-      <c r="D179" s="3">
-        <v>-3.6253237120618502E-2</v>
-      </c>
+        <v>0.43371999999999999</v>
+      </c>
+      <c r="D179" s="3"/>
       <c r="K179" s="3">
         <v>2.3310300000000002</v>
       </c>
@@ -16576,14 +16354,12 @@
         <v>38748</v>
       </c>
       <c r="B180" s="3">
-        <v>-0.70862000000000003</v>
+        <v>-0.19148748351651701</v>
       </c>
       <c r="C180" s="3">
-        <v>-0.19148748351651701</v>
-      </c>
-      <c r="D180" s="3">
-        <v>-2.2272233274836202</v>
-      </c>
+        <v>-0.1021</v>
+      </c>
+      <c r="D180" s="3"/>
       <c r="K180" s="3">
         <v>-1.69476</v>
       </c>
@@ -16593,14 +16369,12 @@
         <v>38717</v>
       </c>
       <c r="B181" s="3">
-        <v>0.75504000000000004</v>
+        <v>1.1534442360622501</v>
       </c>
       <c r="C181" s="3">
-        <v>1.1534442360622501</v>
-      </c>
-      <c r="D181" s="3">
-        <v>1.21337233708442</v>
-      </c>
+        <v>1.24803</v>
+      </c>
+      <c r="D181" s="3"/>
       <c r="K181" s="3">
         <v>1.20956</v>
       </c>
@@ -16610,14 +16384,12 @@
         <v>38686</v>
       </c>
       <c r="B182" s="3">
-        <v>0.83814</v>
+        <v>0.55546169506861498</v>
       </c>
       <c r="C182" s="3">
-        <v>0.55546169506861498</v>
-      </c>
-      <c r="D182" s="3">
-        <v>-0.29153324318598001</v>
-      </c>
+        <v>0.64705999999999997</v>
+      </c>
+      <c r="D182" s="3"/>
       <c r="K182" s="3">
         <v>2.4591099999999999</v>
       </c>
@@ -16647,10 +16419,10 @@
         <v>44134</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">

--- a/OMG Manager Returns.xlsx
+++ b/OMG Manager Returns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\bmcdonald\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmcdonald\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D1F5A3-B1BC-4D3F-AD86-C0187555AB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D4F1F-A188-4485-A19A-73F9C6DCCE35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="300" windowWidth="29040" windowHeight="15420" activeTab="1" xr2:uid="{FD771F25-7425-42AF-85A8-75B299B93A24}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{FD771F25-7425-42AF-85A8-75B299B93A24}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -9349,8 +9349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B673FE-1674-4523-AC51-4FF77E8804E1}">
   <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9477,11 +9477,11 @@
         <v>-0.54817053449898101</v>
       </c>
       <c r="C3" s="3">
-        <f>_xll.MSTS(C1,"Return","ED-15Y",$A$1,"Freq=M,Dates=FALSE,Ascending=False")</f>
-        <v>-0.53864999999999996</v>
+        <f>_xll.MSTS(C1,"Return","ED-15Y",$A$1,"Freq=M,Dates=FALSE,Ascending=False,CURR=CAD")</f>
+        <v>-0.71735652442448838</v>
       </c>
       <c r="D3" s="3">
-        <f>_xll.MSTS(D1,"Return","ED-15Y",$A$1,"Freq=M,Dates=FALSE,Ascending=False,CURR=CAD")</f>
+        <f>_xll.MSTS(D1,"Return","ED-15Y",$A$1,"Freq=M,Dates=FALSE,Ascending=False")</f>
         <v>-1.49027</v>
       </c>
       <c r="E3" s="3">
@@ -9537,7 +9537,7 @@
         <v>-0.39770404374773699</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.37822</v>
+        <v>2.1296232664338501</v>
       </c>
       <c r="D4" s="3">
         <v>2.63774</v>
@@ -9584,7 +9584,7 @@
         <v>-0.55644146493746205</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.56361000000000006</v>
+        <v>-3.27686125382604</v>
       </c>
       <c r="D5" s="3">
         <v>-4.1155299999999997</v>
@@ -9631,7 +9631,7 @@
         <v>2.8711299725678798</v>
       </c>
       <c r="C6" s="3">
-        <v>2.9283299999999999</v>
+        <v>1.2279721255506599</v>
       </c>
       <c r="D6" s="3">
         <v>-1.4959999999999999E-2</v>
@@ -9678,7 +9678,7 @@
         <v>1.88814489228767</v>
       </c>
       <c r="C7" s="3">
-        <v>1.9183300000000001</v>
+        <v>0.42885650412385701</v>
       </c>
       <c r="D7" s="3">
         <v>-1.5468500000000001</v>
@@ -9725,7 +9725,7 @@
         <v>1.84809773324663</v>
       </c>
       <c r="C8" s="3">
-        <v>1.86581</v>
+        <v>1.37076394542641</v>
       </c>
       <c r="D8" s="3">
         <v>-0.58582000000000001</v>
@@ -9772,7 +9772,7 @@
         <v>4.3935362653184198</v>
       </c>
       <c r="C9" s="3">
-        <v>4.5311399999999997</v>
+        <v>2.0047963628060401</v>
       </c>
       <c r="D9" s="3">
         <v>-1.25813</v>
@@ -9819,7 +9819,7 @@
         <v>-9.5233611690088793</v>
       </c>
       <c r="C10" s="3">
-        <v>-8.9799900000000008</v>
+        <v>-3.4876662319812302</v>
       </c>
       <c r="D10" s="3">
         <v>9.17272</v>
@@ -9866,7 +9866,7 @@
         <v>0.66116331722978405</v>
       </c>
       <c r="C11" s="3">
-        <v>0.64693999999999996</v>
+        <v>2.15373324940456</v>
       </c>
       <c r="D11" s="3">
         <v>4.3492600000000001</v>
@@ -9913,7 +9913,7 @@
         <v>2.5491319945373898</v>
       </c>
       <c r="C12" s="3">
-        <v>2.5160499999999999</v>
+        <v>4.5556984210526199</v>
       </c>
       <c r="D12" s="3">
         <v>5.4734999999999996</v>
@@ -9960,7 +9960,7 @@
         <v>0.27129376458569998</v>
       </c>
       <c r="C13" s="3">
-        <v>0.31486999999999998</v>
+        <v>-2.06413877470353</v>
       </c>
       <c r="D13" s="3">
         <v>-3.0655199999999998</v>
@@ -10007,7 +10007,7 @@
         <v>0.12849460888344399</v>
       </c>
       <c r="C14" s="3">
-        <v>0.13394</v>
+        <v>1.19291345912427</v>
       </c>
       <c r="D14" s="3">
         <v>0.20252999999999999</v>
@@ -10054,7 +10054,7 @@
         <v>0.80168796479869098</v>
       </c>
       <c r="C15" s="3">
-        <v>0.85702</v>
+        <v>0.121921629154087</v>
       </c>
       <c r="D15" s="3">
         <v>-0.35317999999999999</v>
@@ -10101,7 +10101,7 @@
         <v>-0.49698084105069801</v>
       </c>
       <c r="C16" s="3">
-        <v>-0.44891999999999999</v>
+        <v>-0.80852655027091203</v>
       </c>
       <c r="D16" s="3">
         <v>-1.67025</v>
@@ -10148,7 +10148,7 @@
         <v>2.8292842266887299</v>
       </c>
       <c r="C17" s="3">
-        <v>2.85765</v>
+        <v>4.0834979400677698</v>
       </c>
       <c r="D17" s="3">
         <v>6.08772</v>
@@ -10195,7 +10195,7 @@
         <v>0.42888945985948201</v>
       </c>
       <c r="C18" s="3">
-        <v>0.49991000000000002</v>
+        <v>0.99212306600342903</v>
       </c>
       <c r="D18" s="3">
         <v>-0.40189000000000002</v>
@@ -10242,7 +10242,7 @@
         <v>1.9682957250867399</v>
       </c>
       <c r="C19" s="3">
-        <v>2.11896</v>
+        <v>-1.2915519047266699</v>
       </c>
       <c r="D19" s="3">
         <v>-2.0705</v>
@@ -10289,7 +10289,7 @@
         <v>1.23863453656332</v>
       </c>
       <c r="C20" s="3">
-        <v>1.31386</v>
+        <v>1.8184711076419899</v>
       </c>
       <c r="D20" s="3">
         <v>3.7457799999999999</v>
@@ -10336,7 +10336,7 @@
         <v>0.544689374956286</v>
       </c>
       <c r="C21" s="3">
-        <v>0.61604000000000003</v>
+        <v>1.3126965889441899</v>
       </c>
       <c r="D21" s="3">
         <v>1.7760000000000001E-2</v>
@@ -10383,7 +10383,7 @@
         <v>2.2679477147835501</v>
       </c>
       <c r="C22" s="3">
-        <v>2.3106300000000002</v>
+        <v>3.7827533397874</v>
       </c>
       <c r="D22" s="3">
         <v>4.2769899999999996</v>
@@ -10430,7 +10430,7 @@
         <v>0.55325807000226002</v>
       </c>
       <c r="C23" s="3">
-        <v>0.61624000000000001</v>
+        <v>0.899709190588595</v>
       </c>
       <c r="D23" s="3">
         <v>-0.46073999999999998</v>
@@ -10477,7 +10477,7 @@
         <v>2.2595665576920099</v>
       </c>
       <c r="C24" s="3">
-        <v>2.4351500000000001</v>
+        <v>-1.5023557658515101</v>
       </c>
       <c r="D24" s="3">
         <v>-3.1244399999999999</v>
@@ -10524,7 +10524,7 @@
         <v>1.05148177126666</v>
       </c>
       <c r="C25" s="3">
-        <v>1.11476</v>
+        <v>3.9068085230607101</v>
       </c>
       <c r="D25" s="3">
         <v>5.7790400000000002</v>
@@ -10571,7 +10571,7 @@
         <v>-0.214425928032069</v>
       </c>
       <c r="C26" s="3">
-        <v>-0.15844</v>
+        <v>1.0465771147915399</v>
       </c>
       <c r="D26" s="3">
         <v>2.1412</v>
@@ -10618,7 +10618,7 @@
         <v>-1.2649383885299601</v>
       </c>
       <c r="C27" s="3">
-        <v>-1.1780600000000001</v>
+        <v>0.40067515472691101</v>
       </c>
       <c r="D27" s="3">
         <v>1.38862</v>
@@ -10665,7 +10665,7 @@
         <v>-0.35961706228525497</v>
       </c>
       <c r="C28" s="3">
-        <v>-0.30395</v>
+        <v>-1.1717364699566699</v>
       </c>
       <c r="D28" s="3">
         <v>-2.2183999999999999</v>
@@ -10712,7 +10712,7 @@
         <v>0.28270523709161799</v>
       </c>
       <c r="C29" s="3">
-        <v>0.33977000000000002</v>
+        <v>0.49004845737326203</v>
       </c>
       <c r="D29" s="3">
         <v>1.4551799999999999</v>
@@ -10759,7 +10759,7 @@
         <v>0.73520165944349603</v>
       </c>
       <c r="C30" s="3">
-        <v>0.79503000000000001</v>
+        <v>-0.23556268957390999</v>
       </c>
       <c r="D30" s="3">
         <v>-1.7537199999999999</v>
@@ -10806,7 +10806,7 @@
         <v>-0.36576917489457</v>
       </c>
       <c r="C31" s="3">
-        <v>-0.27096999999999999</v>
+        <v>1.13209413621646</v>
       </c>
       <c r="D31" s="3">
         <v>1.7060900000000001</v>
@@ -10853,7 +10853,7 @@
         <v>-0.25511717850652499</v>
       </c>
       <c r="C32" s="3">
-        <v>-0.18970000000000001</v>
+        <v>0.99763731814812195</v>
       </c>
       <c r="D32" s="3">
         <v>2.1183900000000002</v>
@@ -10900,7 +10900,7 @@
         <v>-0.93738344061771095</v>
       </c>
       <c r="C33" s="3">
-        <v>-0.88575999999999999</v>
+        <v>-1.44696531471787</v>
       </c>
       <c r="D33" s="3">
         <v>-1.57833</v>
@@ -10947,7 +10947,7 @@
         <v>0.44330148940963099</v>
       </c>
       <c r="C34" s="3">
-        <v>0.50263999999999998</v>
+        <v>1.12227620868615</v>
       </c>
       <c r="D34" s="3">
         <v>2.64</v>
@@ -10994,7 +10994,7 @@
         <v>-1.3416170193365</v>
       </c>
       <c r="C35" s="3">
-        <v>-1.25335</v>
+        <v>3.1332436544809901</v>
       </c>
       <c r="D35" s="3">
         <v>2.0408200000000001</v>
@@ -11041,7 +11041,7 @@
         <v>-0.79898435126937095</v>
       </c>
       <c r="C36" s="3">
-        <v>-0.76788000000000001</v>
+        <v>-2.8349683371243901</v>
       </c>
       <c r="D36" s="3">
         <v>-4.18459</v>
@@ -11088,7 +11088,7 @@
         <v>0.53053316802960104</v>
       </c>
       <c r="C37" s="3">
-        <v>0.60294000000000003</v>
+        <v>-2.1575303322207402</v>
       </c>
       <c r="D37" s="3">
         <v>-2.4418199999999999</v>
@@ -11135,7 +11135,7 @@
         <v>-0.103219682414146</v>
       </c>
       <c r="C38" s="3">
-        <v>-7.843E-2</v>
+        <v>-0.14044012799625699</v>
       </c>
       <c r="D38" s="3">
         <v>-0.24737999999999999</v>
@@ -11182,7 +11182,7 @@
         <v>0.264916635849754</v>
       </c>
       <c r="C39" s="3">
-        <v>0.27873999999999999</v>
+        <v>3.3617108975332699</v>
       </c>
       <c r="D39" s="3">
         <v>2.89798</v>
@@ -11229,7 +11229,7 @@
         <v>-0.120870958606278</v>
       </c>
       <c r="C40" s="3">
-        <v>-8.8400000000000006E-2</v>
+        <v>-0.33543964905281598</v>
       </c>
       <c r="D40" s="3">
         <v>-2.2022200000000001</v>
@@ -11276,7 +11276,7 @@
         <v>0.988350721455999</v>
       </c>
       <c r="C41" s="3">
-        <v>1.0344800000000001</v>
+        <v>1.2930145136139899</v>
       </c>
       <c r="D41" s="3">
         <v>2.07193</v>
@@ -11323,7 +11323,7 @@
         <v>0.64856585673349598</v>
       </c>
       <c r="C42" s="3">
-        <v>0.73831000000000002</v>
+        <v>-2.99661694733194</v>
       </c>
       <c r="D42" s="3">
         <v>-3.6353399999999998</v>
@@ -11370,7 +11370,7 @@
         <v>0.33218242430175199</v>
       </c>
       <c r="C43" s="3">
-        <v>0.40787000000000001</v>
+        <v>-3.4576880365736198</v>
       </c>
       <c r="D43" s="3">
         <v>-3.63042</v>
@@ -11417,7 +11417,7 @@
         <v>1.0158008126968501</v>
       </c>
       <c r="C44" s="3">
-        <v>1.0719700000000001</v>
+        <v>-0.15511601038542699</v>
       </c>
       <c r="D44" s="3">
         <v>-0.61338999999999999</v>
@@ -11464,7 +11464,7 @@
         <v>1.13184212386334</v>
       </c>
       <c r="C45" s="3">
-        <v>1.1456500000000001</v>
+        <v>3.6977072282832699</v>
       </c>
       <c r="D45" s="3">
         <v>3.6268500000000001</v>
@@ -11511,7 +11511,7 @@
         <v>0.38756114657607599</v>
       </c>
       <c r="C46" s="3">
-        <v>0.40740999999999999</v>
+        <v>1.1048679425421899</v>
       </c>
       <c r="D46" s="3">
         <v>0.30002000000000001</v>
@@ -11558,7 +11558,7 @@
         <v>1.25249619186047</v>
       </c>
       <c r="C47" s="3">
-        <v>1.25935</v>
+        <v>2.8670727574304902</v>
       </c>
       <c r="D47" s="3">
         <v>2.7355</v>
@@ -11605,7 +11605,7 @@
         <v>0.59694661432740903</v>
       </c>
       <c r="C48" s="3">
-        <v>0.65390999999999999</v>
+        <v>-2.14568050221841</v>
       </c>
       <c r="D48" s="3">
         <v>-2.8630200000000001</v>
@@ -11652,7 +11652,7 @@
         <v>0.88002143514938003</v>
       </c>
       <c r="C49" s="3">
-        <v>0.91888000000000003</v>
+        <v>0.65243494273390401</v>
       </c>
       <c r="D49" s="3">
         <v>-0.26129000000000002</v>
@@ -11699,7 +11699,7 @@
         <v>-2.9732054574859701</v>
       </c>
       <c r="C50" s="3">
-        <v>-2.9442599999999999</v>
+        <v>-2.6292497638500101</v>
       </c>
       <c r="D50" s="3">
         <v>-3.68506</v>
@@ -11746,7 +11746,7 @@
         <v>-0.70637178396024602</v>
       </c>
       <c r="C51" s="3">
-        <v>-0.66803999999999997</v>
+        <v>1.2970586950732399</v>
       </c>
       <c r="D51" s="3">
         <v>0.28843999999999997</v>
@@ -11793,7 +11793,7 @@
         <v>0.19560930882507299</v>
       </c>
       <c r="C52" s="3">
-        <v>0.21204000000000001</v>
+        <v>0.380072078045813</v>
       </c>
       <c r="D52" s="3">
         <v>0.47093000000000002</v>
@@ -11840,7 +11840,7 @@
         <v>0.26765486337765299</v>
       </c>
       <c r="C53" s="3">
-        <v>0.28660999999999998</v>
+        <v>0.90184168590160096</v>
       </c>
       <c r="D53" s="3">
         <v>-0.23491000000000001</v>
@@ -11887,7 +11887,7 @@
         <v>1.7261233682136901</v>
       </c>
       <c r="C54" s="3">
-        <v>1.73051</v>
+        <v>2.1495892550242499</v>
       </c>
       <c r="D54" s="3">
         <v>0.69140999999999997</v>
@@ -11934,7 +11934,7 @@
         <v>2.1423674132974702</v>
       </c>
       <c r="C55" s="3">
-        <v>2.1555900000000001</v>
+        <v>1.4215004456845799</v>
       </c>
       <c r="D55" s="3">
         <v>1.7401</v>
@@ -11981,7 +11981,7 @@
         <v>0.42075094895628301</v>
       </c>
       <c r="C56" s="3">
-        <v>0.40287000000000001</v>
+        <v>4.8515042687210697</v>
       </c>
       <c r="D56" s="3">
         <v>4.2655900000000004</v>
@@ -12028,7 +12028,7 @@
         <v>1.25014293292669</v>
       </c>
       <c r="C57" s="3">
-        <v>1.29572</v>
+        <v>-1.9034219552359899</v>
       </c>
       <c r="D57" s="3">
         <v>-4.6558700000000002</v>
@@ -12075,7 +12075,7 @@
         <v>2.3183252379833399</v>
       </c>
       <c r="C58" s="3">
-        <v>2.42869</v>
+        <v>-2.19519483205374</v>
       </c>
       <c r="D58" s="3">
         <v>-2.59903</v>
@@ -12122,7 +12122,7 @@
         <v>0.30907037985028402</v>
       </c>
       <c r="C59" s="3">
-        <v>0.3211</v>
+        <v>-3.4322529330253801</v>
       </c>
       <c r="D59" s="3">
         <v>-2.27711</v>
@@ -12169,7 +12169,7 @@
         <v>0.49496362945768901</v>
       </c>
       <c r="C60" s="3">
-        <v>0.49568000000000001</v>
+        <v>1.80875795839031</v>
       </c>
       <c r="D60" s="3">
         <v>4.6179199999999998</v>
@@ -12216,7 +12216,7 @@
         <v>-0.94360242070858902</v>
       </c>
       <c r="C61" s="3">
-        <v>-0.90820000000000001</v>
+        <v>3.36681513911312</v>
       </c>
       <c r="D61" s="3">
         <v>2.9622600000000001</v>
@@ -12263,7 +12263,7 @@
         <v>-0.43643024684036902</v>
       </c>
       <c r="C62" s="3">
-        <v>-0.44757000000000002</v>
+        <v>1.3253283979821899</v>
       </c>
       <c r="D62" s="3">
         <v>0.62653999999999999</v>
@@ -12310,7 +12310,7 @@
         <v>1.2914899440401999</v>
       </c>
       <c r="C63" s="3">
-        <v>1.3081700000000001</v>
+        <v>-1.1363137021705101</v>
       </c>
       <c r="D63" s="3">
         <v>-1.4408700000000001</v>
@@ -12357,7 +12357,7 @@
         <v>-0.63889494131656999</v>
       </c>
       <c r="C64" s="3">
-        <v>-0.64224999999999999</v>
+        <v>0.11945541149942999</v>
       </c>
       <c r="D64" s="3">
         <v>2.7494700000000001</v>
@@ -12404,7 +12404,7 @@
         <v>-1.2203837932878101</v>
       </c>
       <c r="C65" s="3">
-        <v>-1.2135800000000001</v>
+        <v>1.0302715784618901</v>
       </c>
       <c r="D65" s="3">
         <v>1.7012100000000001</v>
@@ -12451,7 +12451,7 @@
         <v>1.3948019023783</v>
       </c>
       <c r="C66" s="3">
-        <v>1.29701</v>
+        <v>5.5567665180824202</v>
       </c>
       <c r="D66" s="3">
         <v>6.9427000000000003</v>
@@ -12498,7 +12498,7 @@
         <v>-1.61477147631706</v>
       </c>
       <c r="C67" s="3">
-        <v>-1.66337</v>
+        <v>-1.64761408091327</v>
       </c>
       <c r="D67" s="3">
         <v>-2.62676</v>
@@ -12545,7 +12545,7 @@
         <v>-0.232489965644988</v>
       </c>
       <c r="C68" s="3">
-        <v>-0.26645999999999997</v>
+        <v>2.78009602063984</v>
       </c>
       <c r="D68" s="3">
         <v>0.80049000000000003</v>
@@ -12592,7 +12592,7 @@
         <v>-0.30610566963095098</v>
       </c>
       <c r="C69" s="3">
-        <v>-0.35805999999999999</v>
+        <v>-4.7048560402684503</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3">
@@ -12637,7 +12637,7 @@
         <v>0.50880235905461602</v>
       </c>
       <c r="C70" s="3">
-        <v>0.45585999999999999</v>
+        <v>1.8919206262763699</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3">
@@ -12682,7 +12682,7 @@
         <v>-0.51112966353632405</v>
       </c>
       <c r="C71" s="3">
-        <v>-0.5615</v>
+        <v>-2.07509521274496</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
@@ -12727,7 +12727,7 @@
         <v>3.4879253038166702</v>
       </c>
       <c r="C72" s="3">
-        <v>3.1254499999999998</v>
+        <v>12.892652128210599</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3">
@@ -12772,7 +12772,7 @@
         <v>-0.82389494961465604</v>
       </c>
       <c r="C73" s="3">
-        <v>-0.88363000000000003</v>
+        <v>0.68102219030913602</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3">
@@ -12817,7 +12817,7 @@
         <v>1.2900198708811501</v>
       </c>
       <c r="C74" s="3">
-        <v>1.2027699999999999</v>
+        <v>2.3517304470264602</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3">
@@ -12862,7 +12862,7 @@
         <v>1.44260624081806</v>
       </c>
       <c r="C75" s="3">
-        <v>1.35189</v>
+        <v>2.2497323435192902</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3">
@@ -12907,7 +12907,7 @@
         <v>-1.26379503071845</v>
       </c>
       <c r="C76" s="3">
-        <v>-1.2938499999999999</v>
+        <v>1.6907655519704801</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3">
@@ -12952,7 +12952,7 @@
         <v>1.7828248705513201</v>
       </c>
       <c r="C77" s="3">
-        <v>1.7136499999999999</v>
+        <v>1.34926912919674</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3">
@@ -12997,7 +12997,7 @@
         <v>-8.7558326128322997E-2</v>
       </c>
       <c r="C78" s="3">
-        <v>-0.16650999999999999</v>
+        <v>2.0360783819180099</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3">
@@ -13042,7 +13042,7 @@
         <v>0.54263235690275002</v>
       </c>
       <c r="C79" s="3">
-        <v>0.47900999999999999</v>
+        <v>-1.43646221715705</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3">
@@ -13087,7 +13087,7 @@
         <v>1.8156228097989799</v>
       </c>
       <c r="C80" s="3">
-        <v>1.7595099999999999</v>
+        <v>0.68391629094719497</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3">
@@ -13132,7 +13132,7 @@
         <v>1.13671230556104</v>
       </c>
       <c r="C81" s="3">
-        <v>1.07307</v>
+        <v>0.49616368878822897</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3">
@@ -13177,7 +13177,7 @@
         <v>0.15993718981066599</v>
       </c>
       <c r="C82" s="3">
-        <v>8.702E-2</v>
+        <v>-0.20231417408194799</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3">
@@ -13222,7 +13222,7 @@
         <v>1.1934494847158601</v>
       </c>
       <c r="C83" s="3">
-        <v>1.1361399999999999</v>
+        <v>0.41046699224180799</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3">
@@ -13267,7 +13267,7 @@
         <v>1.9420270660691801</v>
       </c>
       <c r="C84" s="3">
-        <v>1.7780100000000001</v>
+        <v>6.80225152894117</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3">
@@ -13312,7 +13312,7 @@
         <v>-0.608985838489428</v>
       </c>
       <c r="C85" s="3">
-        <v>-0.68398000000000003</v>
+        <v>-0.32750425049589099</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3">
@@ -13357,7 +13357,7 @@
         <v>-0.14755226577283201</v>
       </c>
       <c r="C86" s="3">
-        <v>-0.22186</v>
+        <v>1.29464143261253</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3">
@@ -13402,7 +13402,7 @@
         <v>1.5972298210612901</v>
       </c>
       <c r="C87" s="3">
-        <v>1.4995499999999999</v>
+        <v>2.9757814159937599</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3">
@@ -13447,7 +13447,7 @@
         <v>1.3393429825991201</v>
       </c>
       <c r="C88" s="3">
-        <v>1.2996099999999999</v>
+        <v>-1.2931376253673199</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3">
@@ -13492,7 +13492,7 @@
         <v>-0.90117364632895602</v>
       </c>
       <c r="C89" s="3">
-        <v>-0.95499999999999996</v>
+        <v>1.6317985506541499</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3">
@@ -13537,7 +13537,7 @@
         <v>0.51527703390381596</v>
       </c>
       <c r="C90" s="3">
-        <v>0.45385999999999999</v>
+        <v>-2.1075967837338201</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3">
@@ -13582,7 +13582,7 @@
         <v>-3.8315841568381002</v>
       </c>
       <c r="C91" s="3">
-        <v>-3.8230599999999999</v>
+        <v>-1.83168414396979</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3">
@@ -13627,7 +13627,7 @@
         <v>-2.5877972874021</v>
       </c>
       <c r="C92" s="3">
-        <v>-2.5919699999999999</v>
+        <v>9.0539748968538405E-2</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3">
@@ -13672,7 +13672,7 @@
         <v>2.1451221600493802</v>
       </c>
       <c r="C93" s="3">
-        <v>2.1020400000000001</v>
+        <v>1.0869992952409</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3">
@@ -13714,7 +13714,7 @@
         <v>0.38369244829588001</v>
       </c>
       <c r="C94" s="3">
-        <v>0.31935999999999998</v>
+        <v>-0.86138437624627695</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3">
@@ -13756,7 +13756,7 @@
         <v>0.943580029469126</v>
       </c>
       <c r="C95" s="3">
-        <v>0.85841999999999996</v>
+        <v>3.8068765890774099</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3">
@@ -13798,7 +13798,7 @@
         <v>1.66655159370643E-2</v>
       </c>
       <c r="C96" s="3">
-        <v>-4.845E-2</v>
+        <v>0.26775707291351097</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3">
@@ -13840,7 +13840,7 @@
         <v>0.51586546099700004</v>
       </c>
       <c r="C97" s="3">
-        <v>0.45238</v>
+        <v>0.690023421754688</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3">
@@ -13882,7 +13882,7 @@
         <v>0.93956208164116495</v>
       </c>
       <c r="C98" s="3">
-        <v>0.88293999999999995</v>
+        <v>0.26219954877437601</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3">
@@ -13924,7 +13924,7 @@
         <v>0.94080974772876502</v>
       </c>
       <c r="C99" s="3">
-        <v>0.86214999999999997</v>
+        <v>2.4561399715432799</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3">
@@ -13966,7 +13966,7 @@
         <v>1.2432313739304299</v>
       </c>
       <c r="C100" s="3">
-        <v>1.1849000000000001</v>
+        <v>0.88755368597051598</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3">
@@ -14008,7 +14008,7 @@
         <v>0.77324736516142201</v>
       </c>
       <c r="C101" s="3">
-        <v>0.71540999999999999</v>
+        <v>-0.83707237503740795</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3">
@@ -14050,7 +14050,7 @@
         <v>2.5606702511188102</v>
       </c>
       <c r="C102" s="3">
-        <v>2.53565</v>
+        <v>0.810713615184667</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3">
@@ -14092,7 +14092,7 @@
         <v>1.15143211390231</v>
       </c>
       <c r="C103" s="3">
-        <v>1.0992599999999999</v>
+        <v>-0.49658176578490998</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3">
@@ -14134,7 +14134,7 @@
         <v>1.01986308867108</v>
       </c>
       <c r="C104" s="3">
-        <v>0.91000999999999999</v>
+        <v>5.79744760159927</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3">
@@ -14176,7 +14176,7 @@
         <v>1.77879621355629</v>
       </c>
       <c r="C105" s="3">
-        <v>1.73977</v>
+        <v>0.56911878683274597</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3">
@@ -14218,7 +14218,7 @@
         <v>-0.13928963914786499</v>
       </c>
       <c r="C106" s="3">
-        <v>-0.20730000000000001</v>
+        <v>1.26180416772425</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3">
@@ -14260,7 +14260,7 @@
         <v>0.67262269543810704</v>
       </c>
       <c r="C107" s="3">
-        <v>0.61684000000000005</v>
+        <v>-1.1790830552924201</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3">
@@ -14302,7 +14302,7 @@
         <v>3.07277265902108</v>
       </c>
       <c r="C108" s="3">
-        <v>3.05118</v>
+        <v>1.4926352693346201</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3">
@@ -14344,7 +14344,7 @@
         <v>1.87289754135999</v>
       </c>
       <c r="C109" s="3">
-        <v>1.7915399999999999</v>
+        <v>1.9417119301696599</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3">
@@ -14386,7 +14386,7 @@
         <v>-1.47704135620189</v>
       </c>
       <c r="C110" s="3">
-        <v>-1.51074</v>
+        <v>0.819486639818791</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3">
@@ -14428,7 +14428,7 @@
         <v>2.4226068909635399</v>
       </c>
       <c r="C111" s="3">
-        <v>2.4620799999999998</v>
+        <v>-2.3362977208387199</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3">
@@ -14467,7 +14467,7 @@
         <v>-1.09003333909427</v>
       </c>
       <c r="C112" s="3">
-        <v>-1.09294</v>
+        <v>5.40072799815922</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3">
@@ -14506,7 +14506,7 @@
         <v>-1.1267505211780899</v>
       </c>
       <c r="C113" s="3">
-        <v>-1.1638299999999999</v>
+        <v>1.2911479688728</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3">
@@ -14545,7 +14545,7 @@
         <v>1.96922885881214</v>
       </c>
       <c r="C114" s="3">
-        <v>1.9132</v>
+        <v>0.75689543052536101</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3">
@@ -14584,7 +14584,7 @@
         <v>-0.98266401310628204</v>
       </c>
       <c r="C115" s="3">
-        <v>-1.06935</v>
+        <v>-1.4522678278371299</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3">
@@ -14623,7 +14623,7 @@
         <v>1.15223367361652</v>
       </c>
       <c r="C116" s="3">
-        <v>1.0603100000000001</v>
+        <v>3.1904740933761899</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3">
@@ -14662,7 +14662,7 @@
         <v>2.0523857971371502</v>
       </c>
       <c r="C117" s="3">
-        <v>2.0366200000000001</v>
+        <v>-0.47037071498328897</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3">
@@ -14701,7 +14701,7 @@
         <v>0.49037849660997701</v>
       </c>
       <c r="C118" s="3">
-        <v>0.42754999999999999</v>
+        <v>0.24205968139140999</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3">
@@ -14740,7 +14740,7 @@
         <v>1.0051596050740501</v>
       </c>
       <c r="C119" s="3">
-        <v>0.97316999999999998</v>
+        <v>-1.6211918785303601</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3">
@@ -14779,7 +14779,7 @@
         <v>0.76040404073740497</v>
       </c>
       <c r="C120" s="3">
-        <v>0.69240999999999997</v>
+        <v>1.36122689327227</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3">
@@ -14818,7 +14818,7 @@
         <v>-0.29552803975512099</v>
       </c>
       <c r="C121" s="3">
-        <v>-0.37086000000000002</v>
+        <v>-3.6155243296660302</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3">
@@ -14857,7 +14857,7 @@
         <v>-1.89264650707093</v>
       </c>
       <c r="C122" s="3">
-        <v>-1.9413499999999999</v>
+        <v>-1.0259046629324</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3">
@@ -14896,7 +14896,7 @@
         <v>1.22625869260901</v>
       </c>
       <c r="C123" s="3">
-        <v>1.1673800000000001</v>
+        <v>0.353780657990938</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3">
@@ -14935,7 +14935,7 @@
         <v>1.5071427487767199</v>
       </c>
       <c r="C124" s="3">
-        <v>1.5179</v>
+        <v>-2.3377524124349298</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3">
@@ -14974,7 +14974,7 @@
         <v>2.6315019493279501</v>
       </c>
       <c r="C125" s="3">
-        <v>2.5070000000000001</v>
+        <v>6.1297533375406603</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3">
@@ -15013,7 +15013,7 @@
         <v>2.4369489683249101</v>
       </c>
       <c r="C126" s="3">
-        <v>2.4948700000000001</v>
+        <v>-0.65911508351763304</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3">
@@ -15052,7 +15052,7 @@
         <v>1.8131969125457701</v>
       </c>
       <c r="C127" s="3">
-        <v>1.7829699999999999</v>
+        <v>3.0730195554391</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3">
@@ -15091,7 +15091,7 @@
         <v>-1.58456630297428</v>
       </c>
       <c r="C128" s="3">
-        <v>-1.5208699999999999</v>
+        <v>2.02801507182701</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3">
@@ -15130,7 +15130,7 @@
         <v>1.7293512392535499</v>
       </c>
       <c r="C129" s="3">
-        <v>1.73126</v>
+        <v>1.5607970932925901</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3">
@@ -15169,7 +15169,7 @@
         <v>1.1283413882134701</v>
       </c>
       <c r="C130" s="3">
-        <v>1.1706000000000001</v>
+        <v>-2.8879017645110898</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3">
@@ -15208,7 +15208,7 @@
         <v>0.36778814790334702</v>
       </c>
       <c r="C131" s="3">
-        <v>0.36603000000000002</v>
+        <v>-0.43934734068511699</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3">
@@ -15247,7 +15247,7 @@
         <v>2.1285431782552102</v>
       </c>
       <c r="C132" s="3">
-        <v>2.0971199999999999</v>
+        <v>3.7673309104783601</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3">
@@ -15286,7 +15286,7 @@
         <v>-0.236348867095381</v>
       </c>
       <c r="C133" s="3">
-        <v>-0.23869000000000001</v>
+        <v>-0.79699375053355903</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3">
@@ -15322,7 +15322,7 @@
         <v>1.6877589056523301</v>
       </c>
       <c r="C134" s="3">
-        <v>1.7254799999999999</v>
+        <v>-0.441805337913109</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3">
@@ -15358,7 +15358,7 @@
         <v>0.96422126993189705</v>
       </c>
       <c r="C135" s="3">
-        <v>0.96536</v>
+        <v>1.33223310537594</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3">
@@ -15391,7 +15391,7 @@
         <v>2.5368246991268601</v>
       </c>
       <c r="C136" s="3">
-        <v>2.5985800000000001</v>
+        <v>0.26774952333256802</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3">
@@ -15424,7 +15424,7 @@
         <v>1.66961476937044</v>
       </c>
       <c r="C137" s="3">
-        <v>1.6545099999999999</v>
+        <v>3.2671035126260302</v>
       </c>
       <c r="D137" s="3"/>
       <c r="F137" s="3">
@@ -15454,7 +15454,7 @@
         <v>4.2251679145161702</v>
       </c>
       <c r="C138" s="3">
-        <v>4.5582099999999999</v>
+        <v>-2.6668266836009802</v>
       </c>
       <c r="D138" s="3"/>
       <c r="F138" s="3">
@@ -15484,7 +15484,7 @@
         <v>2.1498181974189698</v>
       </c>
       <c r="C139" s="3">
-        <v>2.0474199999999998</v>
+        <v>8.1518262611790302</v>
       </c>
       <c r="D139" s="3"/>
       <c r="F139" s="3">
@@ -15514,7 +15514,7 @@
         <v>3.4342224620238699</v>
       </c>
       <c r="C140" s="3">
-        <v>3.73807</v>
+        <v>-4.3210360188536301</v>
       </c>
       <c r="D140" s="3"/>
       <c r="F140" s="3">
@@ -15544,7 +15544,7 @@
         <v>2.8893521025635098</v>
       </c>
       <c r="C141" s="3">
-        <v>3.06731</v>
+        <v>-2.6711671811787099</v>
       </c>
       <c r="D141" s="3"/>
       <c r="F141" s="3">
@@ -15574,7 +15574,7 @@
         <v>1.08671802205093</v>
       </c>
       <c r="C142" s="3">
-        <v>1.0927899999999999</v>
+        <v>0.24029139654017201</v>
       </c>
       <c r="D142" s="3"/>
       <c r="F142" s="3">
@@ -15604,7 +15604,7 @@
         <v>-3.3161855688375401</v>
       </c>
       <c r="C143" s="3">
-        <v>-3.2782300000000002</v>
+        <v>-1.01591493769404</v>
       </c>
       <c r="D143" s="3"/>
       <c r="F143" s="3">
@@ -15634,7 +15634,7 @@
         <v>-0.58523942693703401</v>
       </c>
       <c r="C144" s="3">
-        <v>-0.63432999999999995</v>
+        <v>-0.20370518469016399</v>
       </c>
       <c r="D144" s="3"/>
       <c r="F144" s="3">
@@ -15664,7 +15664,7 @@
         <v>7.1432577748295998</v>
       </c>
       <c r="C145" s="3">
-        <v>7.1763399999999997</v>
+        <v>6.5978019094424498</v>
       </c>
       <c r="D145" s="3"/>
       <c r="F145" s="3">
@@ -15694,7 +15694,7 @@
         <v>3.1560455642146401</v>
       </c>
       <c r="C146" s="3">
-        <v>3.0528900000000001</v>
+        <v>5.2015027083933001</v>
       </c>
       <c r="D146" s="3"/>
       <c r="F146" s="3">
@@ -15718,7 +15718,7 @@
         <v>-3.29353864548058</v>
       </c>
       <c r="C147" s="3">
-        <v>-2.7303500000000001</v>
+        <v>11.2352369756395</v>
       </c>
       <c r="D147" s="3"/>
       <c r="F147" s="3">
@@ -15742,7 +15742,7 @@
         <v>-6.2042390877825397</v>
       </c>
       <c r="C148" s="3">
-        <v>-6.2279499999999999</v>
+        <v>-5.9315529933480997</v>
       </c>
       <c r="D148" s="3"/>
       <c r="F148" s="3">
@@ -15766,7 +15766,7 @@
         <v>0.74972776498312099</v>
       </c>
       <c r="C149" s="3">
-        <v>0.68396000000000001</v>
+        <v>4.0513821910194503</v>
       </c>
       <c r="D149" s="3"/>
       <c r="F149" s="3">
@@ -15790,7 +15790,7 @@
         <v>0.333933866412294</v>
       </c>
       <c r="C150" s="3">
-        <v>0.28743999999999997</v>
+        <v>1.3747810280419701</v>
       </c>
       <c r="D150" s="3"/>
       <c r="F150" s="3">
@@ -15814,7 +15814,7 @@
         <v>-0.99005283320745496</v>
       </c>
       <c r="C151" s="3">
-        <v>-1.01501</v>
+        <v>1.0619116478816399</v>
       </c>
       <c r="D151" s="3"/>
       <c r="F151" s="3">
@@ -15838,7 +15838,7 @@
         <v>-1.1571235777973401</v>
       </c>
       <c r="C152" s="3">
-        <v>-1.20092</v>
+        <v>-2.51549419521398</v>
       </c>
       <c r="D152" s="3"/>
       <c r="F152" s="3">
@@ -15862,7 +15862,7 @@
         <v>1.16579529642946</v>
       </c>
       <c r="C153" s="3">
-        <v>1.12514</v>
+        <v>-0.74252863505674305</v>
       </c>
       <c r="D153" s="3"/>
       <c r="F153" s="3">
@@ -15886,7 +15886,7 @@
         <v>-1.11217443290542</v>
       </c>
       <c r="C154" s="3">
-        <v>-1.1132299999999999</v>
+        <v>3.5968657938533601</v>
       </c>
       <c r="D154" s="3"/>
       <c r="F154" s="3">
@@ -15910,7 +15910,7 @@
         <v>0.14172729390571301</v>
       </c>
       <c r="C155" s="3">
-        <v>6.3200000000000006E-2</v>
+        <v>-2.7951814322555002</v>
       </c>
       <c r="D155" s="3"/>
       <c r="F155" s="3">
@@ -15934,7 +15934,7 @@
         <v>2.12603140775833</v>
       </c>
       <c r="C156" s="3">
-        <v>2.1208499999999999</v>
+        <v>4.3196119053650204</v>
       </c>
       <c r="D156" s="3"/>
       <c r="F156" s="3">
@@ -15958,7 +15958,7 @@
         <v>0.35644980252689201</v>
       </c>
       <c r="C157" s="3">
-        <v>0.40155000000000002</v>
+        <v>-0.86903784263705497</v>
       </c>
       <c r="D157" s="3"/>
       <c r="F157" s="3">
@@ -15979,7 +15979,7 @@
         <v>1.6526272267775199</v>
       </c>
       <c r="C158" s="3">
-        <v>1.57731</v>
+        <v>6.9032207580543297</v>
       </c>
       <c r="D158" s="3"/>
       <c r="F158" s="3">
@@ -16000,7 +16000,7 @@
         <v>1.01479795351477</v>
       </c>
       <c r="C159" s="3">
-        <v>1.0943700000000001</v>
+        <v>-3.3718097755862</v>
       </c>
       <c r="D159" s="3"/>
       <c r="F159" s="3">
@@ -16021,7 +16021,7 @@
         <v>1.60751886522256</v>
       </c>
       <c r="C160" s="3">
-        <v>1.77773</v>
+        <v>-4.3942616618613002</v>
       </c>
       <c r="D160" s="3"/>
       <c r="F160" s="3">
@@ -16042,7 +16042,7 @@
         <v>1.2760682681773801</v>
       </c>
       <c r="C161" s="3">
-        <v>1.36741</v>
+        <v>0.42754827300397802</v>
       </c>
       <c r="D161" s="3"/>
       <c r="F161" s="3">
@@ -16063,7 +16063,7 @@
         <v>0.149074812064586</v>
       </c>
       <c r="C162" s="3">
-        <v>0.2225</v>
+        <v>0.59936486486486695</v>
       </c>
       <c r="D162" s="3"/>
       <c r="F162" s="3">
@@ -16084,7 +16084,7 @@
         <v>-0.85202020940388001</v>
       </c>
       <c r="C163" s="3">
-        <v>-0.76044</v>
+        <v>-1.2570555139837101</v>
       </c>
       <c r="D163" s="3"/>
       <c r="F163" s="3">
@@ -16105,7 +16105,7 @@
         <v>-1.5659728531805801</v>
       </c>
       <c r="C164" s="3">
-        <v>-1.52338</v>
+        <v>-4.7356879681491302</v>
       </c>
       <c r="D164" s="3"/>
       <c r="F164" s="3">
@@ -16126,7 +16126,7 @@
         <v>0.60493694226657602</v>
       </c>
       <c r="C165" s="3">
-        <v>0.72291000000000005</v>
+        <v>-3.5115295050491899</v>
       </c>
       <c r="D165" s="3"/>
       <c r="F165" s="3">
@@ -16147,7 +16147,7 @@
         <v>-0.30424632884731201</v>
       </c>
       <c r="C166" s="3">
-        <v>-0.21390999999999999</v>
+        <v>-1.82233360752205</v>
       </c>
       <c r="D166" s="3"/>
       <c r="K166" s="3">
@@ -16162,7 +16162,7 @@
         <v>2.0380394308601799</v>
       </c>
       <c r="C167" s="3">
-        <v>2.1326800000000001</v>
+        <v>1.45346825991188</v>
       </c>
       <c r="D167" s="3"/>
       <c r="K167" s="3">
@@ -16177,7 +16177,7 @@
         <v>-0.185347283954651</v>
       </c>
       <c r="C168" s="3">
-        <v>-9.2910000000000006E-2</v>
+        <v>1.34083443842914</v>
       </c>
       <c r="D168" s="3"/>
       <c r="K168" s="3">
@@ -16192,7 +16192,7 @@
         <v>-1.2264908033394699</v>
       </c>
       <c r="C169" s="3">
-        <v>-1.11076</v>
+        <v>0.76830874605954502</v>
       </c>
       <c r="D169" s="3"/>
       <c r="K169" s="3">
@@ -16207,7 +16207,7 @@
         <v>1.39501886315034</v>
       </c>
       <c r="C170" s="3">
-        <v>1.45357</v>
+        <v>3.4048613860502401</v>
       </c>
       <c r="D170" s="3"/>
       <c r="K170" s="3">
@@ -16222,7 +16222,7 @@
         <v>0.80531211424046401</v>
       </c>
       <c r="C171" s="3">
-        <v>0.88939000000000001</v>
+        <v>1.3234589929637299</v>
       </c>
       <c r="D171" s="3"/>
       <c r="K171" s="3">
@@ -16237,7 +16237,7 @@
         <v>0.88774272654599196</v>
       </c>
       <c r="C172" s="3">
-        <v>0.97172000000000003</v>
+        <v>1.5085374345573399</v>
       </c>
       <c r="D172" s="3"/>
       <c r="K172" s="3">
@@ -16252,7 +16252,7 @@
         <v>1.8524251014665201</v>
       </c>
       <c r="C173" s="3">
-        <v>1.9849300000000001</v>
+        <v>0.13517015483300501</v>
       </c>
       <c r="D173" s="3"/>
       <c r="K173" s="3">
@@ -16267,7 +16267,7 @@
         <v>1.5060188816834399</v>
       </c>
       <c r="C174" s="3">
-        <v>1.57646</v>
+        <v>3.2342360534124501</v>
       </c>
       <c r="D174" s="3"/>
       <c r="K174" s="3">
@@ -16282,7 +16282,7 @@
         <v>-0.27517150898620502</v>
       </c>
       <c r="C175" s="3">
-        <v>-0.19416</v>
+        <v>0.81663532767156199</v>
       </c>
       <c r="D175" s="3"/>
       <c r="K175" s="3">
@@ -16297,7 +16297,7 @@
         <v>-0.38635276278693398</v>
       </c>
       <c r="C176" s="3">
-        <v>-0.30964999999999998</v>
+        <v>-2.0533748315559199</v>
       </c>
       <c r="D176" s="3"/>
       <c r="K176" s="3">
@@ -16312,7 +16312,7 @@
         <v>-0.31762511871007398</v>
       </c>
       <c r="C177" s="3">
-        <v>-0.24232000000000001</v>
+        <v>-4.1801231578947498</v>
       </c>
       <c r="D177" s="3"/>
       <c r="K177" s="3">
@@ -16327,7 +16327,7 @@
         <v>-1.5459736266826001</v>
       </c>
       <c r="C178" s="3">
-        <v>-1.4369000000000001</v>
+        <v>1.04460869106728</v>
       </c>
       <c r="D178" s="3"/>
       <c r="K178" s="3">
@@ -16342,7 +16342,7 @@
         <v>0.35292981768106901</v>
       </c>
       <c r="C179" s="3">
-        <v>0.43371999999999999</v>
+        <v>-3.6253237120618502E-2</v>
       </c>
       <c r="D179" s="3"/>
       <c r="K179" s="3">
@@ -16357,7 +16357,7 @@
         <v>-0.19148748351651701</v>
       </c>
       <c r="C180" s="3">
-        <v>-0.1021</v>
+        <v>-2.2272233274836202</v>
       </c>
       <c r="D180" s="3"/>
       <c r="K180" s="3">
@@ -16372,7 +16372,7 @@
         <v>1.1534442360622501</v>
       </c>
       <c r="C181" s="3">
-        <v>1.24803</v>
+        <v>1.21337233708442</v>
       </c>
       <c r="D181" s="3"/>
       <c r="K181" s="3">
@@ -16387,7 +16387,7 @@
         <v>0.55546169506861498</v>
       </c>
       <c r="C182" s="3">
-        <v>0.64705999999999997</v>
+        <v>-0.29153324318598001</v>
       </c>
       <c r="D182" s="3"/>
       <c r="K182" s="3">
